--- a/config_6.1/task_server.xlsx
+++ b/config_6.1/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="492">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1556,6 +1556,12 @@
     <t>1,2,3,4,5,6,107,108,110,101,102,103,104,105,106,22,23,24,25,26,27,34,111,10330,85,86,87,88,89,109,10044,10045,90,10189,10490,10491,10493,10494,10495,10492</t>
   </si>
   <si>
+    <t>task_id</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>award_id|奖励配置id</t>
   </si>
   <si>
@@ -2055,9 +2061,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2093,7 +2099,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2108,14 +2144,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2129,23 +2197,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2159,32 +2228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2192,45 +2237,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2316,13 +2322,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2340,7 +2364,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,19 +2394,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2376,7 +2424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,31 +2436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2424,37 +2448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2500,11 +2506,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2524,35 +2545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2564,21 +2556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2597,16 +2574,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2615,133 +2621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -2840,10 +2846,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2887,9 +2896,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3494,7 +3500,7 @@
       <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -3524,7 +3530,7 @@
       <c r="N5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="49" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="68"/>
@@ -3608,7 +3614,7 @@
       <c r="N7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="48" t="s">
+      <c r="O7" s="49" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3649,7 +3655,7 @@
       <c r="N8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="48" t="s">
+      <c r="O8" s="49" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3660,7 +3666,7 @@
       <c r="B9" s="14">
         <v>-1</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -3838,7 +3844,7 @@
       <c r="B14" s="14">
         <v>-1</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="49" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -3908,7 +3914,7 @@
       <c r="B16" s="14">
         <v>-1</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -4013,7 +4019,7 @@
       <c r="B19" s="14">
         <v>-1</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="49" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -4153,7 +4159,7 @@
       <c r="B23" s="14">
         <v>-1</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="49" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -4293,7 +4299,7 @@
       <c r="B27" s="14">
         <v>-1</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="49" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4328,7 +4334,7 @@
       <c r="B28" s="14">
         <v>-1</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="49" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -4363,7 +4369,7 @@
       <c r="B29" s="14">
         <v>-1</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="49" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -5346,7 +5352,7 @@
       <c r="C57" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="49" t="s">
         <v>100</v>
       </c>
       <c r="E57" s="14" t="s">
@@ -5483,7 +5489,7 @@
       <c r="B61" s="26">
         <v>-1</v>
       </c>
-      <c r="C61" s="48" t="s">
+      <c r="C61" s="49" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -5664,7 +5670,7 @@
       <c r="D66" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="14">
@@ -5696,7 +5702,7 @@
       <c r="C67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="49" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="14" t="s">
@@ -6367,7 +6373,7 @@
       <c r="C86" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D86" s="49" t="s">
         <v>150</v>
       </c>
       <c r="E86" s="14" t="s">
@@ -6402,7 +6408,7 @@
       <c r="C87" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="48" t="s">
+      <c r="D87" s="49" t="s">
         <v>151</v>
       </c>
       <c r="E87" s="14" t="s">
@@ -6437,7 +6443,7 @@
       <c r="C88" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="48" t="s">
+      <c r="D88" s="49" t="s">
         <v>152</v>
       </c>
       <c r="E88" s="14" t="s">
@@ -6469,10 +6475,10 @@
       <c r="B89" s="14">
         <v>1</v>
       </c>
-      <c r="C89" s="48" t="s">
+      <c r="C89" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="48" t="s">
+      <c r="D89" s="49" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="14" t="s">
@@ -6609,13 +6615,13 @@
       <c r="B93" s="14">
         <v>1</v>
       </c>
-      <c r="C93" s="48" t="s">
+      <c r="C93" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="48" t="s">
+      <c r="D93" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="49" t="s">
         <v>162</v>
       </c>
       <c r="F93" s="14">
@@ -6650,19 +6656,19 @@
       <c r="B94" s="14">
         <v>0</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="48" t="s">
+      <c r="D94" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="14">
         <v>94</v>
       </c>
-      <c r="G94" s="48" t="b">
+      <c r="G94" s="49" t="b">
         <v>0</v>
       </c>
       <c r="H94" s="14">
@@ -6687,19 +6693,19 @@
       <c r="B95" s="14">
         <v>1</v>
       </c>
-      <c r="C95" s="48" t="s">
+      <c r="C95" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="48" t="s">
+      <c r="D95" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E95" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="14">
         <v>95</v>
       </c>
-      <c r="G95" s="48" t="b">
+      <c r="G95" s="49" t="b">
         <v>0</v>
       </c>
       <c r="H95" s="14">
@@ -6766,13 +6772,13 @@
       <c r="B97" s="14">
         <v>1</v>
       </c>
-      <c r="C97" s="48" t="s">
+      <c r="C97" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="48" t="s">
+      <c r="D97" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="14">
@@ -6804,13 +6810,13 @@
       <c r="B98" s="14">
         <v>1</v>
       </c>
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="48" t="s">
+      <c r="D98" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="E98" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="14">
@@ -6842,13 +6848,13 @@
       <c r="B99" s="14">
         <v>1</v>
       </c>
-      <c r="C99" s="48" t="s">
+      <c r="C99" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="48" t="s">
+      <c r="D99" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E99" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="14">
@@ -6880,13 +6886,13 @@
       <c r="B100" s="14">
         <v>1</v>
       </c>
-      <c r="C100" s="48" t="s">
+      <c r="C100" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="48" t="s">
+      <c r="D100" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="48" t="s">
+      <c r="E100" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="14">
@@ -7610,10 +7616,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7622,7 +7628,7 @@
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="46" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="47" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
@@ -7649,7 +7655,7 @@
       <c r="G1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="48" t="s">
         <v>203</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -7658,7 +7664,7 @@
       <c r="J1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="52"/>
+      <c r="K1" s="53"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="14">
@@ -7679,7 +7685,7 @@
       <c r="F2" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="76" t="s">
         <v>208</v>
       </c>
@@ -7760,7 +7766,7 @@
       <c r="F5" s="75" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="76" t="s">
         <v>213</v>
       </c>
@@ -7788,13 +7794,13 @@
         <v>10</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="50">
+      <c r="H6" s="51">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="53"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -7815,7 +7821,7 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="47">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -7841,7 +7847,7 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="47">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -7867,7 +7873,7 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="47">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -7894,7 +7900,7 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="47">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -7920,7 +7926,7 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="47">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -7946,7 +7952,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="47">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -7972,7 +7978,7 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="47">
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -7998,7 +8004,7 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="47">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -8024,7 +8030,7 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="47">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -8050,7 +8056,7 @@
       <c r="F16" s="4">
         <v>1000</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="47">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -8076,7 +8082,7 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="47">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -8102,7 +8108,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="47">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -8128,7 +8134,7 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="47">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -8154,7 +8160,7 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="47">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -8180,7 +8186,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="47">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -8206,7 +8212,7 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="47">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -8232,7 +8238,7 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="47">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -8258,7 +8264,7 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="47">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -8284,7 +8290,7 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="47">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -8310,7 +8316,7 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="47">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -8336,7 +8342,7 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="47">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -8362,7 +8368,7 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="47">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -8388,7 +8394,7 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="47">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -8414,7 +8420,7 @@
       <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="47">
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -8440,7 +8446,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="47">
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -8466,7 +8472,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="47">
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -8492,7 +8498,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="47">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -8518,7 +8524,7 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="47">
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -8544,7 +8550,7 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="47">
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -8570,7 +8576,7 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="47">
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -8596,7 +8602,7 @@
       <c r="F37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="47">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -8622,7 +8628,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="47">
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -8648,7 +8654,7 @@
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="47">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -8674,7 +8680,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="47">
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -8700,7 +8706,7 @@
       <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="47">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -8726,7 +8732,7 @@
       <c r="F42" s="4">
         <v>50000</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="47">
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -8752,7 +8758,7 @@
       <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="47">
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -8778,7 +8784,7 @@
       <c r="F44" s="4">
         <v>100000</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="47">
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -8804,7 +8810,7 @@
       <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="47">
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -8830,7 +8836,7 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="47">
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -8856,7 +8862,7 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="46">
+      <c r="H47" s="47">
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -8882,7 +8888,7 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="47">
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -8908,7 +8914,7 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="47">
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -8934,7 +8940,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="47">
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -8960,8 +8966,8 @@
       <c r="F51" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="46" t="s">
+      <c r="G51" s="52"/>
+      <c r="H51" s="47" t="s">
         <v>223</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -8987,7 +8993,7 @@
       <c r="F52" s="4">
         <v>8</v>
       </c>
-      <c r="H52" s="46">
+      <c r="H52" s="47">
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -9013,7 +9019,7 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="46">
+      <c r="H53" s="47">
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -9039,7 +9045,7 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="46">
+      <c r="H54" s="47">
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -9065,7 +9071,7 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="46">
+      <c r="H55" s="47">
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -9091,7 +9097,7 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="46">
+      <c r="H56" s="47">
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -9117,7 +9123,7 @@
       <c r="F57" s="4">
         <v>2000000</v>
       </c>
-      <c r="H57" s="46">
+      <c r="H57" s="47">
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -9235,7 +9241,7 @@
       <c r="F62" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="47" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9327,7 +9333,7 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="46">
+      <c r="H66" s="47">
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -9353,7 +9359,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="46">
+      <c r="H67" s="47">
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -9376,10 +9382,10 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="54">
+      <c r="F68" s="55">
         <v>99999999999</v>
       </c>
-      <c r="G68" s="54"/>
+      <c r="G68" s="55"/>
       <c r="I68" s="10" t="s">
         <v>230</v>
       </c>
@@ -9406,14 +9412,14 @@
       <c r="G69" s="4">
         <v>100000000</v>
       </c>
-      <c r="H69" s="46">
+      <c r="H69" s="47">
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" s="37" customFormat="1" spans="1:9">
+    <row r="70" s="39" customFormat="1" spans="1:9">
       <c r="A70" s="31">
         <v>69</v>
       </c>
@@ -9433,14 +9439,14 @@
         <v>233</v>
       </c>
       <c r="G70" s="31"/>
-      <c r="H70" s="55" t="s">
+      <c r="H70" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="I70" s="38" t="s">
+      <c r="I70" s="37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="71" s="37" customFormat="1" spans="1:9">
+    <row r="71" s="39" customFormat="1" spans="1:9">
       <c r="A71" s="31">
         <v>70</v>
       </c>
@@ -9467,7 +9473,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" s="37" customFormat="1" spans="1:9">
+    <row r="72" s="39" customFormat="1" spans="1:9">
       <c r="A72" s="31">
         <v>71</v>
       </c>
@@ -9494,7 +9500,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" s="37" customFormat="1" spans="1:9">
+    <row r="73" s="39" customFormat="1" spans="1:9">
       <c r="A73" s="31">
         <v>72</v>
       </c>
@@ -9521,7 +9527,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" s="37" customFormat="1" spans="1:9">
+    <row r="74" s="39" customFormat="1" spans="1:9">
       <c r="A74" s="31">
         <v>73</v>
       </c>
@@ -9548,7 +9554,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" s="37" customFormat="1" spans="1:9">
+    <row r="75" s="39" customFormat="1" spans="1:9">
       <c r="A75" s="31">
         <v>74</v>
       </c>
@@ -9571,7 +9577,7 @@
       <c r="H75" s="56"/>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" s="37" customFormat="1" spans="1:9">
+    <row r="76" s="39" customFormat="1" spans="1:9">
       <c r="A76" s="31">
         <v>75</v>
       </c>
@@ -9594,14 +9600,14 @@
       <c r="H76" s="56"/>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" s="37" customFormat="1" spans="1:9">
+    <row r="77" s="39" customFormat="1" spans="1:9">
       <c r="A77" s="31">
         <v>76</v>
       </c>
       <c r="B77" s="31">
         <v>76</v>
       </c>
-      <c r="C77" s="38" t="s">
+      <c r="C77" s="37" t="s">
         <v>231</v>
       </c>
       <c r="D77" s="31">
@@ -9623,7 +9629,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" s="37" customFormat="1" spans="1:9">
+    <row r="78" s="39" customFormat="1" spans="1:9">
       <c r="A78" s="31">
         <v>77</v>
       </c>
@@ -9659,7 +9665,7 @@
       <c r="B79" s="57">
         <v>78</v>
       </c>
-      <c r="C79" s="39"/>
+      <c r="C79" s="40"/>
       <c r="D79" s="8">
         <v>78</v>
       </c>
@@ -9682,7 +9688,7 @@
       <c r="B80" s="57">
         <v>79</v>
       </c>
-      <c r="C80" s="39"/>
+      <c r="C80" s="40"/>
       <c r="D80" s="8">
         <v>79</v>
       </c>
@@ -9705,7 +9711,7 @@
       <c r="B81" s="57">
         <v>80</v>
       </c>
-      <c r="C81" s="39"/>
+      <c r="C81" s="40"/>
       <c r="D81" s="8">
         <v>80</v>
       </c>
@@ -9717,7 +9723,7 @@
       <c r="H81" s="58">
         <v>96</v>
       </c>
-      <c r="I81" s="39" t="s">
+      <c r="I81" s="40" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9728,7 +9734,7 @@
       <c r="B82" s="20">
         <v>81</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="43" t="s">
         <v>239</v>
       </c>
       <c r="D82" s="20">
@@ -9746,7 +9752,7 @@
       <c r="H82" s="59">
         <v>97</v>
       </c>
-      <c r="I82" s="42" t="s">
+      <c r="I82" s="43" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9777,7 +9783,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" s="37" customFormat="1" spans="1:9">
+    <row r="84" s="39" customFormat="1" spans="1:9">
       <c r="A84" s="29">
         <v>83</v>
       </c>
@@ -9804,7 +9810,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" s="37" customFormat="1" spans="1:9">
+    <row r="85" s="39" customFormat="1" spans="1:9">
       <c r="A85" s="29">
         <v>84</v>
       </c>
@@ -9956,7 +9962,7 @@
       <c r="B91" s="26">
         <v>90</v>
       </c>
-      <c r="C91" s="39"/>
+      <c r="C91" s="40"/>
       <c r="D91" s="8">
         <v>90</v>
       </c>
@@ -9979,7 +9985,7 @@
       <c r="B92" s="26">
         <v>91</v>
       </c>
-      <c r="C92" s="39"/>
+      <c r="C92" s="40"/>
       <c r="D92" s="8">
         <v>91</v>
       </c>
@@ -10002,7 +10008,7 @@
       <c r="B93" s="26">
         <v>92</v>
       </c>
-      <c r="C93" s="39"/>
+      <c r="C93" s="40"/>
       <c r="D93" s="8">
         <v>92</v>
       </c>
@@ -10014,7 +10020,7 @@
       <c r="H93" s="58">
         <v>109</v>
       </c>
-      <c r="I93" s="39" t="s">
+      <c r="I93" s="40" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10074,7 +10080,7 @@
       <c r="F96" s="4">
         <v>30000</v>
       </c>
-      <c r="H96" s="46">
+      <c r="H96" s="47">
         <v>120</v>
       </c>
       <c r="I96" s="10" t="s">
@@ -10101,7 +10107,7 @@
       <c r="I97" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="J97" s="43"/>
+      <c r="J97" s="44"/>
     </row>
     <row r="98" ht="71.25" spans="1:9">
       <c r="A98" s="4">
@@ -10246,7 +10252,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" s="45" customFormat="1" spans="1:9">
+    <row r="105" s="46" customFormat="1" spans="1:9">
       <c r="A105" s="29">
         <v>104</v>
       </c>
@@ -10269,7 +10275,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" s="45" customFormat="1" spans="1:9">
+    <row r="106" s="46" customFormat="1" spans="1:9">
       <c r="A106" s="29">
         <v>105</v>
       </c>
@@ -10292,7 +10298,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" s="45" customFormat="1" spans="1:9">
+    <row r="107" s="46" customFormat="1" spans="1:9">
       <c r="A107" s="29">
         <v>106</v>
       </c>
@@ -10315,7 +10321,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" s="45" customFormat="1" spans="1:9">
+    <row r="108" s="46" customFormat="1" spans="1:9">
       <c r="A108" s="29">
         <v>107</v>
       </c>
@@ -10338,7 +10344,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" s="45" customFormat="1" spans="1:9">
+    <row r="109" s="46" customFormat="1" spans="1:9">
       <c r="A109" s="29">
         <v>108</v>
       </c>
@@ -10361,7 +10367,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" s="45" customFormat="1" spans="1:9">
+    <row r="110" s="46" customFormat="1" spans="1:9">
       <c r="A110" s="29">
         <v>109</v>
       </c>
@@ -10384,7 +10390,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="111" s="45" customFormat="1" spans="1:9">
+    <row r="111" s="46" customFormat="1" spans="1:9">
       <c r="A111" s="29">
         <v>110</v>
       </c>
@@ -10407,7 +10413,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" s="45" customFormat="1" spans="1:9">
+    <row r="112" s="46" customFormat="1" spans="1:9">
       <c r="A112" s="29">
         <v>111</v>
       </c>
@@ -10430,7 +10436,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="113" s="45" customFormat="1" spans="1:9">
+    <row r="113" s="46" customFormat="1" spans="1:9">
       <c r="A113" s="29">
         <v>112</v>
       </c>
@@ -10453,7 +10459,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="114" s="45" customFormat="1" spans="1:9">
+    <row r="114" s="46" customFormat="1" spans="1:9">
       <c r="A114" s="29">
         <v>113</v>
       </c>
@@ -10476,7 +10482,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" s="45" customFormat="1" spans="1:9">
+    <row r="115" s="46" customFormat="1" spans="1:9">
       <c r="A115" s="29">
         <v>114</v>
       </c>
@@ -10499,7 +10505,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" s="45" customFormat="1" spans="1:9">
+    <row r="116" s="46" customFormat="1" spans="1:9">
       <c r="A116" s="29">
         <v>115</v>
       </c>
@@ -10512,7 +10518,7 @@
       </c>
       <c r="E116" s="21"/>
       <c r="F116" s="21">
-        <v>200</v>
+        <v>12000</v>
       </c>
       <c r="G116" s="21"/>
       <c r="H116" s="60" t="s">
@@ -10522,7 +10528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" s="45" customFormat="1" spans="1:9">
+    <row r="117" s="46" customFormat="1" spans="1:9">
       <c r="A117" s="29">
         <v>116</v>
       </c>
@@ -10545,7 +10551,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="118" s="45" customFormat="1" spans="1:9">
+    <row r="118" s="46" customFormat="1" spans="1:9">
       <c r="A118" s="29">
         <v>117</v>
       </c>
@@ -10568,7 +10574,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="119" s="45" customFormat="1" spans="1:9">
+    <row r="119" s="46" customFormat="1" spans="1:9">
       <c r="A119" s="29">
         <v>118</v>
       </c>
@@ -10603,10 +10609,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C133" sqref="C133"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10640,7 +10646,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" s="37" customFormat="1" spans="1:9">
+    <row r="2" s="39" customFormat="1" spans="1:9">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -10657,7 +10663,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" s="37" customFormat="1" spans="1:9">
+    <row r="3" s="39" customFormat="1" spans="1:9">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -10674,7 +10680,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" s="37" customFormat="1" spans="1:9">
+    <row r="4" s="39" customFormat="1" spans="1:9">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -10691,7 +10697,7 @@
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" s="37" customFormat="1" spans="1:9">
+    <row r="5" s="39" customFormat="1" spans="1:9">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -10708,7 +10714,7 @@
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" s="37" customFormat="1" spans="1:9">
+    <row r="6" s="39" customFormat="1" spans="1:9">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -10725,7 +10731,7 @@
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" s="37" customFormat="1" spans="1:9">
+    <row r="7" s="39" customFormat="1" spans="1:9">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -10742,7 +10748,7 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" s="37" customFormat="1" spans="1:9">
+    <row r="8" s="39" customFormat="1" spans="1:9">
       <c r="A8" s="31">
         <v>7</v>
       </c>
@@ -10759,7 +10765,7 @@
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" s="37" customFormat="1" spans="1:9">
+    <row r="9" s="39" customFormat="1" spans="1:9">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -10776,7 +10782,7 @@
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" s="37" customFormat="1" spans="1:9">
+    <row r="10" s="39" customFormat="1" spans="1:9">
       <c r="A10" s="31">
         <v>9</v>
       </c>
@@ -10793,7 +10799,7 @@
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" s="37" customFormat="1" spans="1:9">
+    <row r="11" s="39" customFormat="1" spans="1:9">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -10810,14 +10816,14 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" s="37" customFormat="1" spans="1:9">
+    <row r="12" s="39" customFormat="1" spans="1:9">
       <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="31">
         <v>11</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>215</v>
       </c>
       <c r="D12" s="31">
@@ -10827,14 +10833,14 @@
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" s="37" customFormat="1" spans="1:9">
+    <row r="13" s="39" customFormat="1" spans="1:9">
       <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="31">
         <v>12</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D13" s="31">
@@ -10844,14 +10850,14 @@
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" s="37" customFormat="1" spans="1:9">
+    <row r="14" s="39" customFormat="1" spans="1:9">
       <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="31">
         <v>13</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D14" s="31">
@@ -10861,14 +10867,14 @@
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" s="37" customFormat="1" spans="1:9">
+    <row r="15" s="39" customFormat="1" spans="1:9">
       <c r="A15" s="31">
         <v>14</v>
       </c>
       <c r="B15" s="31">
         <v>14</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>216</v>
       </c>
       <c r="D15" s="31">
@@ -10878,7 +10884,7 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" s="37" customFormat="1" spans="1:9">
+    <row r="16" s="39" customFormat="1" spans="1:9">
       <c r="A16" s="31">
         <v>15</v>
       </c>
@@ -10895,7 +10901,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" s="37" customFormat="1" spans="1:9">
+    <row r="17" s="39" customFormat="1" spans="1:9">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -10912,7 +10918,7 @@
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" s="37" customFormat="1" spans="1:9">
+    <row r="18" s="39" customFormat="1" spans="1:9">
       <c r="A18" s="31">
         <v>17</v>
       </c>
@@ -10929,14 +10935,14 @@
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" s="37" customFormat="1" spans="1:9">
+    <row r="19" s="39" customFormat="1" spans="1:9">
       <c r="A19" s="31">
         <v>18</v>
       </c>
       <c r="B19" s="31">
         <v>18</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D19" s="31">
@@ -10946,7 +10952,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" s="37" customFormat="1" spans="1:9">
+    <row r="20" s="39" customFormat="1" spans="1:9">
       <c r="A20" s="31">
         <v>19</v>
       </c>
@@ -10963,7 +10969,7 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" s="37" customFormat="1" spans="1:9">
+    <row r="21" s="39" customFormat="1" spans="1:9">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -10980,7 +10986,7 @@
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" s="37" customFormat="1" spans="1:9">
+    <row r="22" s="39" customFormat="1" spans="1:9">
       <c r="A22" s="31">
         <v>21</v>
       </c>
@@ -10997,7 +11003,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" s="37" customFormat="1" spans="1:9">
+    <row r="23" s="39" customFormat="1" spans="1:9">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -11014,7 +11020,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" s="37" customFormat="1" spans="1:9">
+    <row r="24" s="39" customFormat="1" spans="1:9">
       <c r="A24" s="31">
         <v>23</v>
       </c>
@@ -11031,7 +11037,7 @@
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" s="37" customFormat="1" spans="1:9">
+    <row r="25" s="39" customFormat="1" spans="1:9">
       <c r="A25" s="31">
         <v>24</v>
       </c>
@@ -11048,7 +11054,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" s="37" customFormat="1" spans="1:9">
+    <row r="26" s="39" customFormat="1" spans="1:9">
       <c r="A26" s="31">
         <v>25</v>
       </c>
@@ -11065,14 +11071,14 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" s="37" customFormat="1" spans="1:9">
+    <row r="27" s="39" customFormat="1" spans="1:9">
       <c r="A27" s="31">
         <v>26</v>
       </c>
       <c r="B27" s="31">
         <v>26</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D27" s="31">
@@ -11082,7 +11088,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" s="37" customFormat="1" spans="1:9">
+    <row r="28" s="39" customFormat="1" spans="1:9">
       <c r="A28" s="31">
         <v>27</v>
       </c>
@@ -11099,14 +11105,14 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" s="37" customFormat="1" spans="1:9">
+    <row r="29" s="39" customFormat="1" spans="1:9">
       <c r="A29" s="31">
         <v>28</v>
       </c>
       <c r="B29" s="31">
         <v>28</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D29" s="31">
@@ -11116,14 +11122,14 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" s="37" customFormat="1" spans="1:9">
+    <row r="30" s="39" customFormat="1" spans="1:9">
       <c r="A30" s="31">
         <v>29</v>
       </c>
       <c r="B30" s="31">
         <v>29</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D30" s="31">
@@ -11133,14 +11139,14 @@
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" s="37" customFormat="1" spans="1:9">
+    <row r="31" s="39" customFormat="1" spans="1:9">
       <c r="A31" s="31">
         <v>30</v>
       </c>
       <c r="B31" s="31">
         <v>30</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>216</v>
       </c>
       <c r="D31" s="31">
@@ -11150,14 +11156,14 @@
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" s="37" customFormat="1" spans="1:9">
+    <row r="32" s="39" customFormat="1" spans="1:9">
       <c r="A32" s="31">
         <v>31</v>
       </c>
       <c r="B32" s="31">
         <v>31</v>
       </c>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D32" s="31">
@@ -11167,14 +11173,14 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" s="37" customFormat="1" spans="1:9">
+    <row r="33" s="39" customFormat="1" spans="1:9">
       <c r="A33" s="31">
         <v>32</v>
       </c>
       <c r="B33" s="31">
         <v>32</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>214</v>
       </c>
       <c r="D33" s="31">
@@ -11184,14 +11190,14 @@
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" s="37" customFormat="1" spans="1:9">
+    <row r="34" s="39" customFormat="1" spans="1:9">
       <c r="A34" s="31">
         <v>33</v>
       </c>
       <c r="B34" s="31">
         <v>33</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D34" s="31">
@@ -11201,14 +11207,14 @@
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" s="37" customFormat="1" spans="1:9">
+    <row r="35" s="39" customFormat="1" spans="1:9">
       <c r="A35" s="31">
         <v>34</v>
       </c>
       <c r="B35" s="31">
         <v>34</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="37" t="s">
         <v>215</v>
       </c>
       <c r="D35" s="31">
@@ -11218,14 +11224,14 @@
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" s="37" customFormat="1" spans="1:9">
+    <row r="36" s="39" customFormat="1" spans="1:9">
       <c r="A36" s="31">
         <v>35</v>
       </c>
       <c r="B36" s="31">
         <v>35</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D36" s="31">
@@ -11235,14 +11241,14 @@
       <c r="H36" s="31"/>
       <c r="I36" s="31"/>
     </row>
-    <row r="37" s="37" customFormat="1" spans="1:9">
+    <row r="37" s="39" customFormat="1" spans="1:9">
       <c r="A37" s="31">
         <v>36</v>
       </c>
       <c r="B37" s="31">
         <v>36</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C37" s="37" t="s">
         <v>219</v>
       </c>
       <c r="D37" s="31">
@@ -11252,14 +11258,14 @@
       <c r="H37" s="31"/>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" s="37" customFormat="1" spans="1:9">
+    <row r="38" s="39" customFormat="1" spans="1:9">
       <c r="A38" s="31">
         <v>37</v>
       </c>
       <c r="B38" s="31">
         <v>37</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>217</v>
       </c>
       <c r="D38" s="31">
@@ -11269,14 +11275,14 @@
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
     </row>
-    <row r="39" s="37" customFormat="1" spans="1:9">
+    <row r="39" s="39" customFormat="1" spans="1:9">
       <c r="A39" s="31">
         <v>38</v>
       </c>
       <c r="B39" s="31">
         <v>38</v>
       </c>
-      <c r="C39" s="38" t="s">
+      <c r="C39" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D39" s="31">
@@ -11286,14 +11292,14 @@
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
     </row>
-    <row r="40" s="37" customFormat="1" spans="1:9">
+    <row r="40" s="39" customFormat="1" spans="1:9">
       <c r="A40" s="31">
         <v>39</v>
       </c>
       <c r="B40" s="31">
         <v>39</v>
       </c>
-      <c r="C40" s="38" t="s">
+      <c r="C40" s="37" t="s">
         <v>215</v>
       </c>
       <c r="D40" s="31">
@@ -11303,14 +11309,14 @@
       <c r="H40" s="31"/>
       <c r="I40" s="31"/>
     </row>
-    <row r="41" s="37" customFormat="1" spans="1:9">
+    <row r="41" s="39" customFormat="1" spans="1:9">
       <c r="A41" s="31">
         <v>40</v>
       </c>
       <c r="B41" s="31">
         <v>40</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D41" s="31">
@@ -11320,14 +11326,14 @@
       <c r="H41" s="31"/>
       <c r="I41" s="31"/>
     </row>
-    <row r="42" s="37" customFormat="1" spans="1:9">
+    <row r="42" s="39" customFormat="1" spans="1:9">
       <c r="A42" s="31">
         <v>41</v>
       </c>
       <c r="B42" s="31">
         <v>41</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>219</v>
       </c>
       <c r="D42" s="31">
@@ -11337,14 +11343,14 @@
       <c r="H42" s="31"/>
       <c r="I42" s="31"/>
     </row>
-    <row r="43" s="37" customFormat="1" spans="1:9">
+    <row r="43" s="39" customFormat="1" spans="1:9">
       <c r="A43" s="31">
         <v>42</v>
       </c>
       <c r="B43" s="31">
         <v>42</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="37" t="s">
         <v>206</v>
       </c>
       <c r="D43" s="31">
@@ -11354,14 +11360,14 @@
       <c r="H43" s="31"/>
       <c r="I43" s="31"/>
     </row>
-    <row r="44" s="37" customFormat="1" spans="1:9">
+    <row r="44" s="39" customFormat="1" spans="1:9">
       <c r="A44" s="31">
         <v>43</v>
       </c>
       <c r="B44" s="31">
         <v>43</v>
       </c>
-      <c r="C44" s="38" t="s">
+      <c r="C44" s="37" t="s">
         <v>219</v>
       </c>
       <c r="D44" s="31">
@@ -11371,14 +11377,14 @@
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
     </row>
-    <row r="45" s="37" customFormat="1" spans="1:9">
+    <row r="45" s="39" customFormat="1" spans="1:9">
       <c r="A45" s="31">
         <v>44</v>
       </c>
       <c r="B45" s="31">
         <v>44</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="37" t="s">
         <v>217</v>
       </c>
       <c r="D45" s="31">
@@ -11388,14 +11394,14 @@
       <c r="H45" s="31"/>
       <c r="I45" s="31"/>
     </row>
-    <row r="46" s="37" customFormat="1" spans="1:9">
+    <row r="46" s="39" customFormat="1" spans="1:9">
       <c r="A46" s="31">
         <v>45</v>
       </c>
       <c r="B46" s="31">
         <v>45</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="37" t="s">
         <v>216</v>
       </c>
       <c r="D46" s="31">
@@ -11405,14 +11411,14 @@
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" s="37" customFormat="1" spans="1:9">
+    <row r="47" s="39" customFormat="1" spans="1:9">
       <c r="A47" s="31">
         <v>46</v>
       </c>
       <c r="B47" s="31">
         <v>46</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="37" t="s">
         <v>215</v>
       </c>
       <c r="D47" s="31">
@@ -11422,14 +11428,14 @@
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
     </row>
-    <row r="48" s="37" customFormat="1" spans="1:9">
+    <row r="48" s="39" customFormat="1" spans="1:9">
       <c r="A48" s="31">
         <v>47</v>
       </c>
       <c r="B48" s="31">
         <v>47</v>
       </c>
-      <c r="C48" s="38" t="s">
+      <c r="C48" s="37" t="s">
         <v>218</v>
       </c>
       <c r="D48" s="31">
@@ -11439,14 +11445,14 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
     </row>
-    <row r="49" s="37" customFormat="1" spans="1:9">
+    <row r="49" s="39" customFormat="1" spans="1:9">
       <c r="A49" s="31">
         <v>48</v>
       </c>
       <c r="B49" s="31">
         <v>48</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="37" t="s">
         <v>218</v>
       </c>
       <c r="D49" s="31">
@@ -11456,14 +11462,14 @@
       <c r="H49" s="31"/>
       <c r="I49" s="31"/>
     </row>
-    <row r="50" s="37" customFormat="1" spans="1:9">
+    <row r="50" s="39" customFormat="1" spans="1:9">
       <c r="A50" s="31">
         <v>49</v>
       </c>
       <c r="B50" s="31">
         <v>49</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="37" t="s">
         <v>220</v>
       </c>
       <c r="D50" s="31">
@@ -11473,7 +11479,7 @@
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
     </row>
-    <row r="51" s="37" customFormat="1" spans="1:9">
+    <row r="51" s="39" customFormat="1" spans="1:9">
       <c r="A51" s="31">
         <v>50</v>
       </c>
@@ -11490,7 +11496,7 @@
       <c r="H51" s="31"/>
       <c r="I51" s="31"/>
     </row>
-    <row r="52" s="37" customFormat="1" spans="1:9">
+    <row r="52" s="39" customFormat="1" spans="1:9">
       <c r="A52" s="31">
         <v>51</v>
       </c>
@@ -11507,7 +11513,7 @@
       <c r="H52" s="31"/>
       <c r="I52" s="31"/>
     </row>
-    <row r="53" s="37" customFormat="1" spans="1:9">
+    <row r="53" s="39" customFormat="1" spans="1:9">
       <c r="A53" s="31">
         <v>52</v>
       </c>
@@ -11524,7 +11530,7 @@
       <c r="H53" s="31"/>
       <c r="I53" s="31"/>
     </row>
-    <row r="54" s="37" customFormat="1" spans="1:9">
+    <row r="54" s="39" customFormat="1" spans="1:9">
       <c r="A54" s="31">
         <v>53</v>
       </c>
@@ -11541,7 +11547,7 @@
       <c r="H54" s="31"/>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" s="37" customFormat="1" spans="1:9">
+    <row r="55" s="39" customFormat="1" spans="1:9">
       <c r="A55" s="31">
         <v>54</v>
       </c>
@@ -11558,7 +11564,7 @@
       <c r="H55" s="31"/>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" s="37" customFormat="1" spans="1:9">
+    <row r="56" s="39" customFormat="1" spans="1:9">
       <c r="A56" s="31">
         <v>55</v>
       </c>
@@ -11575,7 +11581,7 @@
       <c r="H56" s="31"/>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" s="37" customFormat="1" spans="1:9">
+    <row r="57" s="39" customFormat="1" spans="1:9">
       <c r="A57" s="31">
         <v>56</v>
       </c>
@@ -11592,7 +11598,7 @@
       <c r="H57" s="31"/>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" s="37" customFormat="1" spans="1:9">
+    <row r="58" s="39" customFormat="1" spans="1:9">
       <c r="A58" s="31">
         <v>57</v>
       </c>
@@ -11609,7 +11615,7 @@
       <c r="H58" s="31"/>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" s="37" customFormat="1" spans="1:9">
+    <row r="59" s="39" customFormat="1" spans="1:9">
       <c r="A59" s="31">
         <v>58</v>
       </c>
@@ -11626,7 +11632,7 @@
       <c r="H59" s="31"/>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" s="37" customFormat="1" spans="1:9">
+    <row r="60" s="39" customFormat="1" spans="1:9">
       <c r="A60" s="31">
         <v>59</v>
       </c>
@@ -11643,7 +11649,7 @@
       <c r="H60" s="31"/>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" s="37" customFormat="1" spans="1:9">
+    <row r="61" s="39" customFormat="1" spans="1:9">
       <c r="A61" s="31">
         <v>60</v>
       </c>
@@ -11660,7 +11666,7 @@
       <c r="H61" s="31"/>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" s="37" customFormat="1" spans="1:9">
+    <row r="62" s="39" customFormat="1" spans="1:9">
       <c r="A62" s="31">
         <v>61</v>
       </c>
@@ -11677,7 +11683,7 @@
       <c r="H62" s="31"/>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" s="37" customFormat="1" spans="1:9">
+    <row r="63" s="39" customFormat="1" spans="1:9">
       <c r="A63" s="31">
         <v>62</v>
       </c>
@@ -11694,7 +11700,7 @@
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" s="37" customFormat="1" spans="1:9">
+    <row r="64" s="39" customFormat="1" spans="1:9">
       <c r="A64" s="31">
         <v>63</v>
       </c>
@@ -11711,7 +11717,7 @@
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" s="37" customFormat="1" spans="1:9">
+    <row r="65" s="39" customFormat="1" spans="1:9">
       <c r="A65" s="31">
         <v>64</v>
       </c>
@@ -11728,7 +11734,7 @@
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" s="37" customFormat="1" spans="1:9">
+    <row r="66" s="39" customFormat="1" spans="1:9">
       <c r="A66" s="31">
         <v>65</v>
       </c>
@@ -11745,7 +11751,7 @@
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" s="37" customFormat="1" spans="1:9">
+    <row r="67" s="39" customFormat="1" spans="1:9">
       <c r="A67" s="31">
         <v>66</v>
       </c>
@@ -11762,14 +11768,14 @@
       <c r="H67" s="31"/>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" s="37" customFormat="1" spans="1:9">
+    <row r="68" s="39" customFormat="1" spans="1:9">
       <c r="A68" s="31">
         <v>67</v>
       </c>
       <c r="B68" s="31">
         <v>67</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="37" t="s">
         <v>229</v>
       </c>
       <c r="D68" s="31">
@@ -11779,14 +11785,14 @@
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" s="37" customFormat="1" spans="1:9">
+    <row r="69" s="39" customFormat="1" spans="1:9">
       <c r="A69" s="31">
         <v>68</v>
       </c>
       <c r="B69" s="31">
         <v>68</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="37" t="s">
         <v>231</v>
       </c>
       <c r="D69" s="31">
@@ -11796,7 +11802,7 @@
       <c r="H69" s="31"/>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" s="37" customFormat="1" spans="1:9">
+    <row r="70" s="39" customFormat="1" spans="1:9">
       <c r="A70" s="31">
         <v>69</v>
       </c>
@@ -11813,7 +11819,7 @@
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" s="37" customFormat="1" spans="1:9">
+    <row r="71" s="39" customFormat="1" spans="1:9">
       <c r="A71" s="31">
         <v>70</v>
       </c>
@@ -11830,7 +11836,7 @@
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" s="37" customFormat="1" spans="1:9">
+    <row r="72" s="39" customFormat="1" spans="1:9">
       <c r="A72" s="31">
         <v>71</v>
       </c>
@@ -11847,7 +11853,7 @@
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" s="37" customFormat="1" spans="1:9">
+    <row r="73" s="39" customFormat="1" spans="1:9">
       <c r="A73" s="31">
         <v>72</v>
       </c>
@@ -11864,7 +11870,7 @@
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" s="37" customFormat="1" spans="1:9">
+    <row r="74" s="39" customFormat="1" spans="1:9">
       <c r="A74" s="31">
         <v>73</v>
       </c>
@@ -11881,7 +11887,7 @@
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" s="37" customFormat="1" spans="1:9">
+    <row r="75" s="39" customFormat="1" spans="1:9">
       <c r="A75" s="31">
         <v>74</v>
       </c>
@@ -11898,7 +11904,7 @@
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" s="37" customFormat="1" spans="1:9">
+    <row r="76" s="39" customFormat="1" spans="1:9">
       <c r="A76" s="31">
         <v>75</v>
       </c>
@@ -11915,7 +11921,7 @@
       <c r="H76" s="31"/>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" s="37" customFormat="1" spans="1:9">
+    <row r="77" s="39" customFormat="1" spans="1:9">
       <c r="A77" s="31">
         <v>76</v>
       </c>
@@ -11932,7 +11938,7 @@
       <c r="H77" s="31"/>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" s="37" customFormat="1" spans="1:9">
+    <row r="78" s="39" customFormat="1" spans="1:9">
       <c r="A78" s="31">
         <v>77</v>
       </c>
@@ -11949,14 +11955,14 @@
       <c r="H78" s="31"/>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" s="37" customFormat="1" spans="1:9">
+    <row r="79" s="39" customFormat="1" spans="1:9">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" s="8">
         <v>78</v>
       </c>
-      <c r="C79" s="39" t="s">
+      <c r="C79" s="40" t="s">
         <v>266</v>
       </c>
       <c r="D79" s="8">
@@ -11966,14 +11972,14 @@
       <c r="H79" s="31"/>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" s="37" customFormat="1" spans="1:9">
+    <row r="80" s="39" customFormat="1" spans="1:9">
       <c r="A80" s="8">
         <v>79</v>
       </c>
       <c r="B80" s="8">
         <v>79</v>
       </c>
-      <c r="C80" s="39" t="s">
+      <c r="C80" s="40" t="s">
         <v>266</v>
       </c>
       <c r="D80" s="8">
@@ -11983,14 +11989,14 @@
       <c r="H80" s="31"/>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" s="37" customFormat="1" spans="1:9">
+    <row r="81" s="39" customFormat="1" spans="1:9">
       <c r="A81" s="18">
         <v>80</v>
       </c>
       <c r="B81" s="18">
         <v>80</v>
       </c>
-      <c r="C81" s="40" t="s">
+      <c r="C81" s="41" t="s">
         <v>219</v>
       </c>
       <c r="D81" s="18">
@@ -12000,14 +12006,14 @@
       <c r="H81" s="31"/>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" s="37" customFormat="1" spans="1:9">
+    <row r="82" s="39" customFormat="1" spans="1:9">
       <c r="A82" s="18">
         <v>81</v>
       </c>
       <c r="B82" s="18">
         <v>80</v>
       </c>
-      <c r="C82" s="40" t="s">
+      <c r="C82" s="41" t="s">
         <v>267</v>
       </c>
       <c r="D82" s="18">
@@ -12017,14 +12023,14 @@
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" s="37" customFormat="1" spans="1:9">
+    <row r="83" s="39" customFormat="1" spans="1:9">
       <c r="A83" s="18">
         <v>82</v>
       </c>
       <c r="B83" s="18">
         <v>80</v>
       </c>
-      <c r="C83" s="40" t="s">
+      <c r="C83" s="41" t="s">
         <v>268</v>
       </c>
       <c r="D83" s="18">
@@ -12034,14 +12040,14 @@
       <c r="H83" s="31"/>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" s="37" customFormat="1" spans="1:9">
+    <row r="84" s="39" customFormat="1" spans="1:9">
       <c r="A84" s="18">
         <v>83</v>
       </c>
       <c r="B84" s="18">
         <v>80</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="41" t="s">
         <v>269</v>
       </c>
       <c r="D84" s="18">
@@ -12051,14 +12057,14 @@
       <c r="H84" s="31"/>
       <c r="I84" s="31"/>
     </row>
-    <row r="85" s="37" customFormat="1" spans="1:9">
+    <row r="85" s="39" customFormat="1" spans="1:9">
       <c r="A85" s="18">
         <v>84</v>
       </c>
       <c r="B85" s="18">
         <v>80</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="41" t="s">
         <v>270</v>
       </c>
       <c r="D85" s="18">
@@ -12068,48 +12074,48 @@
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" s="37" customFormat="1" spans="1:9">
+    <row r="86" s="39" customFormat="1" spans="1:9">
       <c r="A86" s="18">
         <v>85</v>
       </c>
       <c r="B86" s="18">
         <v>80</v>
       </c>
-      <c r="C86" s="40" t="s">
+      <c r="C86" s="41" t="s">
         <v>221</v>
       </c>
       <c r="D86" s="18">
         <v>0</v>
       </c>
       <c r="E86" s="31"/>
-      <c r="H86" s="41"/>
+      <c r="H86" s="42"/>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" s="37" customFormat="1" spans="1:9">
+    <row r="87" s="39" customFormat="1" spans="1:9">
       <c r="A87" s="18">
         <v>86</v>
       </c>
       <c r="B87" s="18">
         <v>80</v>
       </c>
-      <c r="C87" s="40" t="s">
+      <c r="C87" s="41" t="s">
         <v>271</v>
       </c>
       <c r="D87" s="18">
         <v>0</v>
       </c>
       <c r="E87" s="31"/>
-      <c r="H87" s="41"/>
+      <c r="H87" s="42"/>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" s="37" customFormat="1" spans="1:9">
+    <row r="88" s="39" customFormat="1" spans="1:9">
       <c r="A88" s="18">
         <v>87</v>
       </c>
       <c r="B88" s="18">
         <v>80</v>
       </c>
-      <c r="C88" s="40" t="s">
+      <c r="C88" s="41" t="s">
         <v>272</v>
       </c>
       <c r="D88" s="18">
@@ -12119,14 +12125,14 @@
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" s="37" customFormat="1" spans="1:9">
+    <row r="89" s="39" customFormat="1" spans="1:9">
       <c r="A89" s="18">
         <v>88</v>
       </c>
       <c r="B89" s="18">
         <v>80</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C89" s="41" t="s">
         <v>273</v>
       </c>
       <c r="D89" s="18">
@@ -12136,14 +12142,14 @@
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" s="37" customFormat="1" spans="1:9">
+    <row r="90" s="39" customFormat="1" spans="1:9">
       <c r="A90" s="18">
         <v>89</v>
       </c>
       <c r="B90" s="18">
         <v>80</v>
       </c>
-      <c r="C90" s="40" t="s">
+      <c r="C90" s="41" t="s">
         <v>274</v>
       </c>
       <c r="D90" s="18">
@@ -12160,7 +12166,7 @@
       <c r="B91" s="20">
         <v>81</v>
       </c>
-      <c r="C91" s="42" t="s">
+      <c r="C91" s="43" t="s">
         <v>239</v>
       </c>
       <c r="D91" s="20">
@@ -12223,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="37" customFormat="1" spans="1:9">
+    <row r="96" s="39" customFormat="1" spans="1:9">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -12240,7 +12246,7 @@
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" s="37" customFormat="1" spans="1:9">
+    <row r="97" s="39" customFormat="1" spans="1:9">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -12257,7 +12263,7 @@
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" s="37" customFormat="1" spans="1:9">
+    <row r="98" s="39" customFormat="1" spans="1:9">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -12365,7 +12371,7 @@
       <c r="B105" s="4">
         <v>96</v>
       </c>
-      <c r="C105" s="40" t="s">
+      <c r="C105" s="41" t="s">
         <v>219</v>
       </c>
       <c r="D105" s="14">
@@ -12382,7 +12388,7 @@
       <c r="B106" s="4">
         <v>96</v>
       </c>
-      <c r="C106" s="40" t="s">
+      <c r="C106" s="41" t="s">
         <v>267</v>
       </c>
       <c r="D106" s="14">
@@ -12396,7 +12402,7 @@
       <c r="B107" s="4">
         <v>96</v>
       </c>
-      <c r="C107" s="40" t="s">
+      <c r="C107" s="41" t="s">
         <v>268</v>
       </c>
       <c r="D107" s="14">
@@ -12410,7 +12416,7 @@
       <c r="B108" s="4">
         <v>96</v>
       </c>
-      <c r="C108" s="40" t="s">
+      <c r="C108" s="41" t="s">
         <v>269</v>
       </c>
       <c r="D108" s="14">
@@ -12424,7 +12430,7 @@
       <c r="B109" s="4">
         <v>96</v>
       </c>
-      <c r="C109" s="40" t="s">
+      <c r="C109" s="41" t="s">
         <v>270</v>
       </c>
       <c r="D109" s="14">
@@ -12438,7 +12444,7 @@
       <c r="B110" s="4">
         <v>96</v>
       </c>
-      <c r="C110" s="40" t="s">
+      <c r="C110" s="41" t="s">
         <v>221</v>
       </c>
       <c r="D110" s="14">
@@ -12452,7 +12458,7 @@
       <c r="B111" s="4">
         <v>96</v>
       </c>
-      <c r="C111" s="40" t="s">
+      <c r="C111" s="41" t="s">
         <v>271</v>
       </c>
       <c r="D111" s="14">
@@ -12469,7 +12475,7 @@
       <c r="B112" s="4">
         <v>96</v>
       </c>
-      <c r="C112" s="40" t="s">
+      <c r="C112" s="41" t="s">
         <v>272</v>
       </c>
       <c r="D112" s="14">
@@ -12483,7 +12489,7 @@
       <c r="B113" s="4">
         <v>96</v>
       </c>
-      <c r="C113" s="40" t="s">
+      <c r="C113" s="41" t="s">
         <v>273</v>
       </c>
       <c r="D113" s="14">
@@ -12497,7 +12503,7 @@
       <c r="B114" s="4">
         <v>96</v>
       </c>
-      <c r="C114" s="40" t="s">
+      <c r="C114" s="41" t="s">
         <v>274</v>
       </c>
       <c r="D114" s="14">
@@ -12511,7 +12517,7 @@
       <c r="B115" s="4">
         <v>96</v>
       </c>
-      <c r="C115" s="40" t="s">
+      <c r="C115" s="41" t="s">
         <v>277</v>
       </c>
       <c r="D115" s="14">
@@ -12590,7 +12596,7 @@
       <c r="D120" s="29">
         <v>0</v>
       </c>
-      <c r="F120" s="43" t="s">
+      <c r="F120" s="44" t="s">
         <v>282</v>
       </c>
     </row>
@@ -12607,7 +12613,7 @@
       <c r="D121" s="29">
         <v>0</v>
       </c>
-      <c r="F121" s="43"/>
+      <c r="F121" s="44"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="21">
@@ -12622,7 +12628,7 @@
       <c r="D122" s="29">
         <v>0</v>
       </c>
-      <c r="F122" s="43"/>
+      <c r="F122" s="44"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="21">
@@ -12637,7 +12643,7 @@
       <c r="D123" s="29">
         <v>0</v>
       </c>
-      <c r="F123" s="43"/>
+      <c r="F123" s="44"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="21">
@@ -12652,7 +12658,7 @@
       <c r="D124" s="29">
         <v>0</v>
       </c>
-      <c r="F124" s="43"/>
+      <c r="F124" s="44"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="21">
@@ -12667,7 +12673,7 @@
       <c r="D125" s="29">
         <v>0</v>
       </c>
-      <c r="F125" s="43"/>
+      <c r="F125" s="44"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="21">
@@ -12682,7 +12688,7 @@
       <c r="D126" s="29">
         <v>0</v>
       </c>
-      <c r="F126" s="43"/>
+      <c r="F126" s="44"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="21">
@@ -12697,7 +12703,7 @@
       <c r="D127" s="29">
         <v>0</v>
       </c>
-      <c r="F127" s="43"/>
+      <c r="F127" s="44"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="21">
@@ -12712,7 +12718,7 @@
       <c r="D128" s="29">
         <v>0</v>
       </c>
-      <c r="F128" s="43"/>
+      <c r="F128" s="44"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="21">
@@ -12727,7 +12733,7 @@
       <c r="D129" s="29">
         <v>0</v>
       </c>
-      <c r="F129" s="43"/>
+      <c r="F129" s="44"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="21">
@@ -12742,7 +12748,7 @@
       <c r="D130" s="29">
         <v>0</v>
       </c>
-      <c r="F130" s="43"/>
+      <c r="F130" s="44"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="21">
@@ -12757,7 +12763,7 @@
       <c r="D131" s="29">
         <v>0</v>
       </c>
-      <c r="F131" s="43"/>
+      <c r="F131" s="44"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="21">
@@ -12772,7 +12778,7 @@
       <c r="D132" s="29">
         <v>0</v>
       </c>
-      <c r="F132" s="43"/>
+      <c r="F132" s="44"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="21">
@@ -12787,7 +12793,7 @@
       <c r="D133" s="29">
         <v>0</v>
       </c>
-      <c r="F133" s="43"/>
+      <c r="F133" s="44"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="21">
@@ -12800,7 +12806,7 @@
         <v>294</v>
       </c>
       <c r="D134" s="29"/>
-      <c r="F134" s="43"/>
+      <c r="F134" s="44"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="21">
@@ -12815,7 +12821,7 @@
       <c r="D135" s="29">
         <v>0</v>
       </c>
-      <c r="F135" s="43"/>
+      <c r="F135" s="44"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="21">
@@ -12926,7 +12932,7 @@
         <v>303</v>
       </c>
       <c r="D143" s="29">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -12986,7 +12992,7 @@
       </c>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="44"/>
+      <c r="C148" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13001,12 +13007,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -14181,6 +14187,23 @@
         <v>331</v>
       </c>
       <c r="E68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="14">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>37</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="E69" s="4">
         <v>2</v>
       </c>
     </row>
@@ -14220,28 +14243,28 @@
         <v>306</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14252,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -14261,7 +14284,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14272,7 +14295,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -14281,7 +14304,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -14292,7 +14315,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
@@ -14304,7 +14327,7 @@
         <v>325</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14315,7 +14338,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D5" s="4">
         <v>75</v>
@@ -14333,7 +14356,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -14342,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14362,7 +14385,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14373,7 +14396,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -14390,7 +14413,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -14407,7 +14430,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
@@ -14424,7 +14447,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
@@ -14441,7 +14464,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D12" s="4">
         <v>70</v>
@@ -14458,7 +14481,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D13" s="4">
         <v>50</v>
@@ -14475,7 +14498,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -14492,7 +14515,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D15" s="4">
         <v>150</v>
@@ -14509,7 +14532,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D16" s="4">
         <v>150</v>
@@ -14526,7 +14549,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -14543,7 +14566,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
@@ -14560,7 +14583,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D19" s="4">
         <v>50</v>
@@ -14577,7 +14600,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -14594,7 +14617,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D21" s="4">
         <v>30</v>
@@ -14611,7 +14634,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D22" s="4">
         <v>50</v>
@@ -14628,7 +14651,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D23" s="4">
         <v>50</v>
@@ -14645,7 +14668,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -14662,7 +14685,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D25" s="4">
         <v>80</v>
@@ -14679,7 +14702,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D26" s="4">
         <v>50</v>
@@ -14696,7 +14719,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -14713,7 +14736,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D28" s="4">
         <v>250</v>
@@ -14730,7 +14753,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D29" s="4">
         <v>666</v>
@@ -14739,7 +14762,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -14750,7 +14773,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D30" s="4">
         <v>50</v>
@@ -14767,7 +14790,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D31" s="4">
         <v>80</v>
@@ -14784,7 +14807,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D32" s="4">
         <v>30</v>
@@ -14793,7 +14816,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -14804,7 +14827,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D33" s="4">
         <v>20</v>
@@ -14813,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14833,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -14853,7 +14876,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -14873,7 +14896,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -14884,7 +14907,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D37" s="4">
         <v>2000</v>
@@ -14893,7 +14916,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -14904,7 +14927,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -14913,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -14933,7 +14956,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -14953,7 +14976,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -14973,7 +14996,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -14993,7 +15016,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -15013,7 +15036,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -15033,7 +15056,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -15053,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -15073,7 +15096,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -15084,7 +15107,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -15093,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -15104,7 +15127,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D48" s="4">
         <v>180</v>
@@ -15113,7 +15136,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -15124,7 +15147,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D49" s="4">
         <v>280</v>
@@ -15133,7 +15156,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -15144,7 +15167,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D50" s="4">
         <v>480</v>
@@ -15153,7 +15176,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -15164,7 +15187,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D51" s="4">
         <v>1800</v>
@@ -15173,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -15184,7 +15207,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D52" s="4">
         <v>500</v>
@@ -15193,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -15213,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -15241,7 +15264,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -15258,7 +15281,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D56" s="4">
         <v>1000</v>
@@ -15267,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -15278,7 +15301,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D57" s="4">
         <v>500</v>
@@ -15287,7 +15310,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15298,7 +15321,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D58" s="4">
         <v>50</v>
@@ -15315,7 +15338,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D59" s="4">
         <v>200</v>
@@ -15332,7 +15355,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D60" s="4">
         <v>300</v>
@@ -15349,7 +15372,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D61" s="4">
         <v>1000</v>
@@ -15383,7 +15406,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -15400,7 +15423,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -15434,7 +15457,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -15451,7 +15474,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -15468,7 +15491,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D68" s="4">
         <v>1000</v>
@@ -15477,7 +15500,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -15505,7 +15528,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D70" s="4">
         <v>688</v>
@@ -15522,7 +15545,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D71" s="4">
         <v>1888</v>
@@ -15539,7 +15562,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D72" s="4">
         <v>3888</v>
@@ -15556,7 +15579,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D73" s="4">
         <v>8888</v>
@@ -15573,7 +15596,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D74" s="4">
         <v>16888</v>
@@ -15590,7 +15613,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D75" s="4">
         <v>22888</v>
@@ -15607,7 +15630,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D76" s="4">
         <v>36888</v>
@@ -15624,7 +15647,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D77" s="4">
         <v>48888</v>
@@ -15641,7 +15664,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D78" s="4">
         <v>88888</v>
@@ -15658,7 +15681,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D79" s="4">
         <v>128888</v>
@@ -15675,7 +15698,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D80" s="4">
         <v>158888</v>
@@ -15692,7 +15715,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D81" s="4">
         <v>188888</v>
@@ -15709,7 +15732,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D82" s="4">
         <v>288888</v>
@@ -15726,7 +15749,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D83" s="4">
         <v>388888</v>
@@ -15743,7 +15766,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D84" s="4">
         <v>5</v>
@@ -15760,7 +15783,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
@@ -15777,7 +15800,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D86" s="4">
         <v>10</v>
@@ -15794,7 +15817,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D87" s="4">
         <v>10</v>
@@ -15811,7 +15834,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -15828,7 +15851,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D89" s="4">
         <v>20000</v>
@@ -15845,7 +15868,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D90" s="18">
         <v>100</v>
@@ -15864,7 +15887,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D91" s="18">
         <v>1</v>
@@ -15883,7 +15906,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D92" s="18">
         <v>100</v>
@@ -15921,7 +15944,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D94" s="18">
         <v>1</v>
@@ -15940,7 +15963,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D95" s="18">
         <v>220</v>
@@ -15978,7 +16001,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D97" s="18">
         <v>1</v>
@@ -15997,7 +16020,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D98" s="20">
         <v>1000</v>
@@ -16014,7 +16037,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D99" s="21">
         <v>1000</v>
@@ -16031,7 +16054,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D100" s="21">
         <v>5000</v>
@@ -16048,7 +16071,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D101" s="21">
         <v>20000</v>
@@ -16065,7 +16088,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D102" s="4">
         <v>30</v>
@@ -16082,7 +16105,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D103" s="4">
         <v>100</v>
@@ -16099,7 +16122,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D104" s="4">
         <v>500</v>
@@ -16116,7 +16139,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D105" s="4">
         <v>1000</v>
@@ -16133,7 +16156,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D106" s="4">
         <v>3000</v>
@@ -16150,7 +16173,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D107" s="4">
         <v>10000</v>
@@ -16167,7 +16190,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D108" s="18">
         <v>100</v>
@@ -16186,7 +16209,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D109" s="18">
         <v>1</v>
@@ -16205,7 +16228,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D110" s="18">
         <v>100</v>
@@ -16243,7 +16266,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D112" s="18">
         <v>1</v>
@@ -16262,7 +16285,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D113" s="18">
         <v>220</v>
@@ -16300,7 +16323,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D115" s="18">
         <v>1</v>
@@ -16319,7 +16342,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D116" s="6">
         <v>10</v>
@@ -16336,7 +16359,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
@@ -16353,7 +16376,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D118" s="6">
         <v>10</v>
@@ -16370,7 +16393,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
@@ -16387,7 +16410,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D120" s="6">
         <v>10</v>
@@ -16404,7 +16427,7 @@
         <v>112</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
@@ -16421,7 +16444,7 @@
         <v>113</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D122" s="6">
         <v>10</v>
@@ -16438,7 +16461,7 @@
         <v>113</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D123" s="6">
         <v>1</v>
@@ -16455,7 +16478,7 @@
         <v>114</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D124" s="6">
         <v>10</v>
@@ -16472,7 +16495,7 @@
         <v>114</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D125" s="6">
         <v>1</v>
@@ -16489,7 +16512,7 @@
         <v>115</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D126" s="6">
         <v>50</v>
@@ -16506,7 +16529,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D127" s="6">
         <v>1</v>
@@ -16523,7 +16546,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D128" s="23">
         <v>50000</v>
@@ -16542,7 +16565,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D129" s="23">
         <v>100</v>
@@ -16561,7 +16584,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D130" s="23">
         <v>5</v>
@@ -16580,7 +16603,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D131" s="23">
         <v>200</v>
@@ -16599,7 +16622,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D132" s="23">
         <v>10</v>
@@ -16618,7 +16641,7 @@
         <v>118</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D133" s="23">
         <v>100000</v>
@@ -16637,7 +16660,7 @@
         <v>119</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D134" s="23">
         <v>20</v>
@@ -16656,7 +16679,7 @@
         <v>119</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D135" s="23">
         <v>500000</v>
@@ -16675,7 +16698,7 @@
         <v>120</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D136" s="26">
         <v>3</v>
@@ -16692,7 +16715,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D137" s="26">
         <v>1</v>
@@ -16709,7 +16732,7 @@
         <v>120</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D138" s="26">
         <v>1</v>
@@ -16726,10 +16749,10 @@
         <v>121</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E139" s="4">
         <v>1</v>
@@ -16743,10 +16766,10 @@
         <v>122</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E140" s="4">
         <v>1</v>
@@ -16760,10 +16783,10 @@
         <v>123</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E141" s="4">
         <v>1</v>
@@ -16828,7 +16851,7 @@
         <v>127</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D145" s="4">
         <v>10</v>
@@ -16845,7 +16868,7 @@
         <v>128</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D146" s="4">
         <v>20</v>
@@ -16862,7 +16885,7 @@
         <v>129</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D147" s="4">
         <v>130</v>
@@ -16879,7 +16902,7 @@
         <v>130</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D148" s="4">
         <v>170</v>
@@ -16896,7 +16919,7 @@
         <v>131</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D149" s="4">
         <v>200</v>
@@ -16913,7 +16936,7 @@
         <v>132</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D150" s="4">
         <v>230</v>
@@ -16930,7 +16953,7 @@
         <v>133</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D151" s="4">
         <v>270</v>
@@ -16947,7 +16970,7 @@
         <v>134</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D152" s="4">
         <v>300</v>
@@ -16964,7 +16987,7 @@
         <v>135</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D153" s="4">
         <v>330</v>
@@ -16981,7 +17004,7 @@
         <v>136</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D154" s="4">
         <v>500</v>
@@ -16998,7 +17021,7 @@
         <v>137</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D155" s="4">
         <v>670</v>
@@ -17015,7 +17038,7 @@
         <v>138</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D156" s="4">
         <v>1100</v>
@@ -17032,7 +17055,7 @@
         <v>139</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D157" s="4">
         <v>1400</v>
@@ -17049,7 +17072,7 @@
         <v>140</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D158" s="4">
         <v>1600</v>
@@ -17066,7 +17089,7 @@
         <v>141</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D159" s="4">
         <v>2200</v>
@@ -17083,7 +17106,7 @@
         <v>142</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D160" s="4">
         <v>3300</v>
@@ -17100,7 +17123,7 @@
         <v>143</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D161" s="4">
         <v>5000</v>
@@ -17117,7 +17140,7 @@
         <v>144</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D162" s="4">
         <v>8000</v>
@@ -17134,7 +17157,7 @@
         <v>145</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D163" s="4">
         <v>12000</v>
@@ -17151,7 +17174,7 @@
         <v>146</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D164" s="4">
         <v>20000</v>
@@ -17168,7 +17191,7 @@
         <v>147</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D165" s="4">
         <v>42000</v>
@@ -17185,7 +17208,7 @@
         <v>148</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D166" s="4">
         <v>62000</v>
@@ -17202,7 +17225,7 @@
         <v>149</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D167" s="4">
         <v>120000</v>
@@ -17219,7 +17242,7 @@
         <v>150</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D168" s="4">
         <v>200000</v>
@@ -17236,7 +17259,7 @@
         <v>151</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D169" s="4">
         <v>350000</v>
@@ -17253,7 +17276,7 @@
         <v>152</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D170" s="4">
         <v>500000</v>
@@ -17270,7 +17293,7 @@
         <v>153</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D171" s="4">
         <v>650000</v>
@@ -17287,7 +17310,7 @@
         <v>154</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D172" s="4">
         <v>800000</v>
@@ -17304,7 +17327,7 @@
         <v>155</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D173" s="4">
         <v>128</v>
@@ -17321,7 +17344,7 @@
         <v>156</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D174" s="4">
         <v>10</v>
@@ -17338,7 +17361,7 @@
         <v>157</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D175" s="20">
         <v>2</v>
@@ -17357,7 +17380,7 @@
         <v>158</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D176" s="20">
         <v>2</v>
@@ -17376,7 +17399,7 @@
         <v>159</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D177" s="20">
         <v>2</v>
@@ -17395,7 +17418,7 @@
         <v>160</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D178" s="20">
         <v>3</v>
@@ -17414,7 +17437,7 @@
         <v>161</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D179" s="20">
         <v>3</v>
@@ -17433,7 +17456,7 @@
         <v>162</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D180" s="20">
         <v>3</v>
@@ -17452,7 +17475,7 @@
         <v>163</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D181" s="20">
         <v>5</v>
@@ -17471,7 +17494,7 @@
         <v>164</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D182" s="20">
         <v>5</v>
@@ -17490,7 +17513,7 @@
         <v>165</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D183" s="20">
         <v>5</v>
@@ -17596,7 +17619,7 @@
         <v>171</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D189" s="20">
         <v>1</v>
@@ -17664,7 +17687,7 @@
         <v>175</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D193" s="20">
         <v>1</v>
@@ -17766,7 +17789,7 @@
         <v>181</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D199" s="20">
         <v>1</v>
@@ -17834,7 +17857,7 @@
         <v>185</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D203" s="20">
         <v>1</v>
@@ -17868,7 +17891,7 @@
         <v>187</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D205" s="21">
         <v>30</v>
@@ -17885,7 +17908,7 @@
         <v>188</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D206" s="21">
         <v>100</v>
@@ -17902,7 +17925,7 @@
         <v>189</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D207" s="21">
         <v>200</v>
@@ -17935,10 +17958,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -17946,7 +17969,7 @@
         <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -17954,7 +17977,7 @@
         <v>215</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -17962,39 +17985,39 @@
         <v>206</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -18002,7 +18025,7 @@
         <v>316</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -18010,7 +18033,7 @@
         <v>319</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -18039,13 +18062,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -18058,7 +18081,7 @@
         <v>206</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -18073,24 +18096,24 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -18098,7 +18121,7 @@
         <v>214</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -18109,7 +18132,7 @@
         <v>215</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -18120,10 +18143,10 @@
         <v>278</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
@@ -18135,10 +18158,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -18156,18 +18179,18 @@
         <v>221</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -18175,10 +18198,10 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -18186,10 +18209,10 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -18200,18 +18223,18 @@
         <v>219</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -18222,21 +18245,21 @@
         <v>231</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -18244,7 +18267,7 @@
         <v>224</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -18255,7 +18278,7 @@
         <v>225</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -18263,7 +18286,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:3">
@@ -18271,10 +18294,10 @@
         <v>267</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:3">
@@ -18282,7 +18305,7 @@
         <v>305</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -18290,13 +18313,13 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -18304,7 +18327,7 @@
         <v>226</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -18315,10 +18338,10 @@
         <v>271</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:3">
@@ -18326,18 +18349,18 @@
         <v>269</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -18345,10 +18368,10 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -18356,13 +18379,13 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -18370,18 +18393,18 @@
         <v>270</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -18389,13 +18412,13 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:3">
@@ -18403,10 +18426,10 @@
         <v>268</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1" spans="1:3">
@@ -18414,7 +18437,7 @@
         <v>299</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -18422,21 +18445,21 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -18447,7 +18470,7 @@
         <v>236</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -18458,7 +18481,7 @@
         <v>237</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -18469,7 +18492,7 @@
         <v>238</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -18480,18 +18503,18 @@
         <v>232</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:16384">
       <c r="A43" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -51268,18 +51291,18 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -51289,7 +51312,7 @@
         <v>302</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -51297,10 +51320,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -51308,10 +51331,10 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -51319,21 +51342,21 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -51341,10 +51364,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -51352,10 +51375,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -51363,10 +51386,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -51374,10 +51397,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>

--- a/config_6.1/task_server.xlsx
+++ b/config_6.1/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1752,7 +1752,7 @@
     <t>obj_fish_3d_quick_shoot</t>
   </si>
   <si>
-    <t>obj_fish_3d_power_bullet</t>
+    <t>obj_fish_3d_time_free_power_bullet</t>
   </si>
   <si>
     <t>obj_50_coupon_604800</t>
@@ -2061,9 +2061,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2098,6 +2098,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -2112,19 +2120,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2143,15 +2156,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2162,6 +2177,36 @@
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2183,38 +2228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2223,20 +2237,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2328,7 +2328,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2340,7 +2364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2352,31 +2382,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2394,19 +2418,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2418,31 +2448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2454,13 +2460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2506,17 +2506,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2524,8 +2518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2545,17 +2539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2575,20 +2563,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2609,10 +2609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2621,138 +2621,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2823,6 +2823,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3291,7 +3294,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3404,8 +3407,8 @@
       <c r="O2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="1:18">
       <c r="A3" s="14">
@@ -3447,8 +3450,8 @@
       <c r="O3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="1:18">
       <c r="A4" s="14">
@@ -3490,8 +3493,8 @@
       <c r="O4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="1:18">
       <c r="A5" s="14">
@@ -3500,7 +3503,7 @@
       <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="50" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -3530,11 +3533,11 @@
       <c r="N5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:15">
       <c r="A6" s="14">
@@ -3614,7 +3617,7 @@
       <c r="N7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="50" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3655,7 +3658,7 @@
       <c r="N8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="50" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3666,7 +3669,7 @@
       <c r="B9" s="14">
         <v>-1</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -3844,7 +3847,7 @@
       <c r="B14" s="14">
         <v>-1</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -3879,7 +3882,7 @@
       <c r="B15" s="14">
         <v>-1</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="68" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -3914,7 +3917,7 @@
       <c r="B16" s="14">
         <v>-1</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="50" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -4019,7 +4022,7 @@
       <c r="B19" s="14">
         <v>-1</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -4159,7 +4162,7 @@
       <c r="B23" s="14">
         <v>-1</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="50" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -4299,7 +4302,7 @@
       <c r="B27" s="14">
         <v>-1</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="50" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4334,7 +4337,7 @@
       <c r="B28" s="14">
         <v>-1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="50" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -4369,7 +4372,7 @@
       <c r="B29" s="14">
         <v>-1</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="50" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -5352,7 +5355,7 @@
       <c r="C57" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="50" t="s">
         <v>100</v>
       </c>
       <c r="E57" s="14" t="s">
@@ -5489,7 +5492,7 @@
       <c r="B61" s="26">
         <v>-1</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -5670,7 +5673,7 @@
       <c r="D66" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="49" t="s">
+      <c r="E66" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="14">
@@ -5702,7 +5705,7 @@
       <c r="C67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="50" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="14" t="s">
@@ -5740,7 +5743,7 @@
       <c r="D68" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="70" t="s">
+      <c r="E68" s="71" t="s">
         <v>124</v>
       </c>
       <c r="F68" s="28">
@@ -6014,10 +6017,10 @@
       <c r="B76" s="28">
         <v>0</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="71" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="28" t="s">
@@ -6052,7 +6055,7 @@
       <c r="C77" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="70" t="s">
+      <c r="D77" s="71" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="28" t="s">
@@ -6077,108 +6080,108 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" s="57" customFormat="1" spans="1:11">
-      <c r="A78" s="57">
+    <row r="78" s="58" customFormat="1" spans="1:11">
+      <c r="A78" s="58">
         <v>78</v>
       </c>
-      <c r="B78" s="57">
-        <v>1</v>
-      </c>
-      <c r="C78" s="71" t="s">
+      <c r="B78" s="58">
+        <v>1</v>
+      </c>
+      <c r="C78" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="71" t="s">
+      <c r="E78" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="57">
+      <c r="F78" s="58">
         <v>78</v>
       </c>
-      <c r="G78" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="57">
-        <v>1</v>
-      </c>
-      <c r="I78" s="57">
+      <c r="G78" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="58">
+        <v>1</v>
+      </c>
+      <c r="I78" s="58">
         <v>946656000</v>
       </c>
-      <c r="J78" s="57">
+      <c r="J78" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K78" s="57">
+      <c r="K78" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" s="57" customFormat="1" spans="1:11">
-      <c r="A79" s="57">
+    <row r="79" s="58" customFormat="1" spans="1:11">
+      <c r="A79" s="58">
         <v>79</v>
       </c>
-      <c r="B79" s="57">
-        <v>1</v>
-      </c>
-      <c r="C79" s="71" t="s">
+      <c r="B79" s="58">
+        <v>1</v>
+      </c>
+      <c r="C79" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="71" t="s">
+      <c r="E79" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="57">
+      <c r="F79" s="58">
         <v>79</v>
       </c>
-      <c r="G79" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="57">
-        <v>1</v>
-      </c>
-      <c r="I79" s="57">
+      <c r="G79" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="58">
+        <v>1</v>
+      </c>
+      <c r="I79" s="58">
         <v>946656000</v>
       </c>
-      <c r="J79" s="57">
+      <c r="J79" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K79" s="57">
+      <c r="K79" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" s="57" customFormat="1" spans="1:11">
-      <c r="A80" s="57">
+    <row r="80" s="58" customFormat="1" spans="1:11">
+      <c r="A80" s="58">
         <v>80</v>
       </c>
-      <c r="B80" s="57">
-        <v>1</v>
-      </c>
-      <c r="C80" s="71" t="s">
+      <c r="B80" s="58">
+        <v>1</v>
+      </c>
+      <c r="C80" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="71" t="s">
+      <c r="E80" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="57">
+      <c r="F80" s="58">
         <v>80</v>
       </c>
-      <c r="G80" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="57">
-        <v>1</v>
-      </c>
-      <c r="I80" s="57">
+      <c r="G80" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="58">
+        <v>1</v>
+      </c>
+      <c r="I80" s="58">
         <v>946656000</v>
       </c>
-      <c r="J80" s="57">
+      <c r="J80" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K80" s="57">
+      <c r="K80" s="58">
         <v>-1</v>
       </c>
     </row>
@@ -6218,115 +6221,115 @@
       </c>
     </row>
     <row r="82" s="26" customFormat="1" spans="1:13">
-      <c r="A82" s="29">
+      <c r="A82" s="30">
         <v>82</v>
       </c>
-      <c r="B82" s="29">
+      <c r="B82" s="30">
         <v>0</v>
       </c>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="D82" s="29" t="s">
+      <c r="D82" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="72" t="s">
+      <c r="E82" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="F82" s="29">
+      <c r="F82" s="30">
         <v>82</v>
       </c>
-      <c r="G82" s="29" t="b">
+      <c r="G82" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H82" s="29">
-        <v>1</v>
-      </c>
-      <c r="I82" s="29">
+      <c r="H82" s="30">
+        <v>1</v>
+      </c>
+      <c r="I82" s="30">
         <v>946677600</v>
       </c>
-      <c r="J82" s="29">
+      <c r="J82" s="30">
         <v>32503651200</v>
       </c>
-      <c r="K82" s="29">
+      <c r="K82" s="30">
         <v>259200</v>
       </c>
-      <c r="L82" s="29"/>
-      <c r="M82" s="29"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="30"/>
     </row>
     <row r="83" s="26" customFormat="1" spans="1:13">
-      <c r="A83" s="29">
+      <c r="A83" s="30">
         <v>83</v>
       </c>
-      <c r="B83" s="29">
+      <c r="B83" s="30">
         <v>0</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="E83" s="29" t="s">
+      <c r="E83" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="29">
+      <c r="F83" s="30">
         <v>83</v>
       </c>
-      <c r="G83" s="29" t="b">
+      <c r="G83" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H83" s="29">
-        <v>1</v>
-      </c>
-      <c r="I83" s="29">
+      <c r="H83" s="30">
+        <v>1</v>
+      </c>
+      <c r="I83" s="30">
         <v>946677600</v>
       </c>
-      <c r="J83" s="29">
+      <c r="J83" s="30">
         <v>32503651200</v>
       </c>
-      <c r="K83" s="29">
+      <c r="K83" s="30">
         <v>259200</v>
       </c>
-      <c r="L83" s="29"/>
-      <c r="M83" s="29"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
     </row>
     <row r="84" s="26" customFormat="1" spans="1:13">
-      <c r="A84" s="29">
+      <c r="A84" s="30">
         <v>84</v>
       </c>
-      <c r="B84" s="29">
+      <c r="B84" s="30">
         <v>0</v>
       </c>
-      <c r="C84" s="72" t="s">
+      <c r="C84" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="E84" s="29" t="s">
+      <c r="E84" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F84" s="29">
+      <c r="F84" s="30">
         <v>84</v>
       </c>
-      <c r="G84" s="29" t="b">
+      <c r="G84" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="H84" s="29">
-        <v>1</v>
-      </c>
-      <c r="I84" s="29">
+      <c r="H84" s="30">
+        <v>1</v>
+      </c>
+      <c r="I84" s="30">
         <v>946677600</v>
       </c>
-      <c r="J84" s="29">
+      <c r="J84" s="30">
         <v>32503651200</v>
       </c>
-      <c r="K84" s="29">
+      <c r="K84" s="30">
         <v>259200</v>
       </c>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
     </row>
     <row r="85" s="26" customFormat="1" spans="1:11">
       <c r="A85" s="26">
@@ -6373,7 +6376,7 @@
       <c r="C86" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="50" t="s">
         <v>150</v>
       </c>
       <c r="E86" s="14" t="s">
@@ -6408,7 +6411,7 @@
       <c r="C87" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D87" s="50" t="s">
         <v>151</v>
       </c>
       <c r="E87" s="14" t="s">
@@ -6443,7 +6446,7 @@
       <c r="C88" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="50" t="s">
         <v>152</v>
       </c>
       <c r="E88" s="14" t="s">
@@ -6475,10 +6478,10 @@
       <c r="B89" s="14">
         <v>1</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="50" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="14" t="s">
@@ -6503,108 +6506,108 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" s="57" customFormat="1" spans="1:11">
-      <c r="A90" s="57">
+    <row r="90" s="58" customFormat="1" spans="1:11">
+      <c r="A90" s="58">
         <v>90</v>
       </c>
-      <c r="B90" s="57">
-        <v>1</v>
-      </c>
-      <c r="C90" s="71" t="s">
+      <c r="B90" s="58">
+        <v>1</v>
+      </c>
+      <c r="C90" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="71" t="s">
+      <c r="E90" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="57">
+      <c r="F90" s="58">
         <v>90</v>
       </c>
-      <c r="G90" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="57">
-        <v>1</v>
-      </c>
-      <c r="I90" s="57">
+      <c r="G90" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="58">
+        <v>1</v>
+      </c>
+      <c r="I90" s="58">
         <v>946656000</v>
       </c>
-      <c r="J90" s="57">
+      <c r="J90" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K90" s="57">
+      <c r="K90" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="91" s="57" customFormat="1" spans="1:11">
-      <c r="A91" s="57">
+    <row r="91" s="58" customFormat="1" spans="1:11">
+      <c r="A91" s="58">
         <v>91</v>
       </c>
-      <c r="B91" s="57">
-        <v>1</v>
-      </c>
-      <c r="C91" s="71" t="s">
+      <c r="B91" s="58">
+        <v>1</v>
+      </c>
+      <c r="C91" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="71" t="s">
+      <c r="E91" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="57">
+      <c r="F91" s="58">
         <v>91</v>
       </c>
-      <c r="G91" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="57">
-        <v>1</v>
-      </c>
-      <c r="I91" s="57">
+      <c r="G91" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="58">
+        <v>1</v>
+      </c>
+      <c r="I91" s="58">
         <v>946656000</v>
       </c>
-      <c r="J91" s="57">
+      <c r="J91" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K91" s="57">
+      <c r="K91" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="92" s="57" customFormat="1" spans="1:11">
-      <c r="A92" s="57">
+    <row r="92" s="58" customFormat="1" spans="1:11">
+      <c r="A92" s="58">
         <v>92</v>
       </c>
-      <c r="B92" s="57">
-        <v>1</v>
-      </c>
-      <c r="C92" s="71" t="s">
+      <c r="B92" s="58">
+        <v>1</v>
+      </c>
+      <c r="C92" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="71" t="s">
+      <c r="E92" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="57">
+      <c r="F92" s="58">
         <v>92</v>
       </c>
-      <c r="G92" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="57">
-        <v>1</v>
-      </c>
-      <c r="I92" s="57">
+      <c r="G92" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="58">
+        <v>1</v>
+      </c>
+      <c r="I92" s="58">
         <v>946656000</v>
       </c>
-      <c r="J92" s="57">
+      <c r="J92" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K92" s="57">
+      <c r="K92" s="58">
         <v>-1</v>
       </c>
     </row>
@@ -6615,13 +6618,13 @@
       <c r="B93" s="14">
         <v>1</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E93" s="50" t="s">
         <v>162</v>
       </c>
       <c r="F93" s="14">
@@ -6636,13 +6639,13 @@
       <c r="I93" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J93" s="57">
+      <c r="J93" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K93" s="57">
+      <c r="K93" s="58">
         <v>-1</v>
       </c>
-      <c r="L93" s="74">
+      <c r="L93" s="75">
         <v>1</v>
       </c>
       <c r="M93" s="28" t="s">
@@ -6656,19 +6659,19 @@
       <c r="B94" s="14">
         <v>0</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="49" t="s">
+      <c r="E94" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="14">
         <v>94</v>
       </c>
-      <c r="G94" s="49" t="b">
+      <c r="G94" s="50" t="b">
         <v>0</v>
       </c>
       <c r="H94" s="14">
@@ -6677,14 +6680,14 @@
       <c r="I94" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J94" s="57">
+      <c r="J94" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K94" s="57">
+      <c r="K94" s="58">
         <v>-1</v>
       </c>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="14">
@@ -6693,19 +6696,19 @@
       <c r="B95" s="14">
         <v>1</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="14">
         <v>95</v>
       </c>
-      <c r="G95" s="49" t="b">
+      <c r="G95" s="50" t="b">
         <v>0</v>
       </c>
       <c r="H95" s="14">
@@ -6724,44 +6727,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" s="61" customFormat="1" spans="1:13">
-      <c r="A96" s="61">
+    <row r="96" s="62" customFormat="1" spans="1:13">
+      <c r="A96" s="62">
         <v>96</v>
       </c>
-      <c r="B96" s="61">
-        <v>1</v>
-      </c>
-      <c r="C96" s="73" t="s">
+      <c r="B96" s="62">
+        <v>1</v>
+      </c>
+      <c r="C96" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="73" t="s">
+      <c r="D96" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="73" t="s">
+      <c r="E96" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="F96" s="61">
+      <c r="F96" s="62">
         <v>96</v>
       </c>
-      <c r="G96" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="61">
+      <c r="G96" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="62">
         <v>7</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I96" s="62">
         <v>1615132800</v>
       </c>
-      <c r="J96" s="61">
+      <c r="J96" s="62">
         <v>32503651200</v>
       </c>
-      <c r="K96" s="61">
+      <c r="K96" s="62">
         <v>-1</v>
       </c>
-      <c r="L96" s="61">
-        <v>1</v>
-      </c>
-      <c r="M96" s="73" t="s">
+      <c r="L96" s="62">
+        <v>1</v>
+      </c>
+      <c r="M96" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6772,19 +6775,19 @@
       <c r="B97" s="14">
         <v>1</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="14">
         <v>97</v>
       </c>
-      <c r="G97" s="61" t="b">
+      <c r="G97" s="62" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="14">
@@ -6810,19 +6813,19 @@
       <c r="B98" s="14">
         <v>1</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D98" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="14">
         <v>98</v>
       </c>
-      <c r="G98" s="61" t="b">
+      <c r="G98" s="62" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="14">
@@ -6848,13 +6851,13 @@
       <c r="B99" s="14">
         <v>1</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D99" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E99" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="14">
@@ -6886,13 +6889,13 @@
       <c r="B100" s="14">
         <v>1</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="14">
@@ -7034,29 +7037,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" s="29" customFormat="1" spans="1:12">
-      <c r="A104" s="29">
+    <row r="104" s="30" customFormat="1" spans="1:12">
+      <c r="A104" s="30">
         <v>30004</v>
       </c>
-      <c r="B104" s="29">
-        <v>1</v>
-      </c>
-      <c r="C104" s="29" t="s">
+      <c r="B104" s="30">
+        <v>1</v>
+      </c>
+      <c r="C104" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="D104" s="29" t="s">
+      <c r="D104" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="29" t="s">
+      <c r="E104" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="F104" s="29">
+      <c r="F104" s="30">
         <v>104</v>
       </c>
-      <c r="G104" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H104" s="29">
+      <c r="G104" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" s="30">
         <v>1</v>
       </c>
       <c r="I104" s="28">
@@ -7065,36 +7068,36 @@
       <c r="J104" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K104" s="29">
+      <c r="K104" s="30">
         <v>-1</v>
       </c>
-      <c r="L104" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" s="29" customFormat="1" spans="1:12">
-      <c r="A105" s="29">
+      <c r="L104" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" s="30" customFormat="1" spans="1:12">
+      <c r="A105" s="30">
         <v>30005</v>
       </c>
-      <c r="B105" s="29">
-        <v>1</v>
-      </c>
-      <c r="C105" s="29" t="s">
+      <c r="B105" s="30">
+        <v>1</v>
+      </c>
+      <c r="C105" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="D105" s="29" t="s">
+      <c r="D105" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="29" t="s">
+      <c r="E105" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F105" s="29">
+      <c r="F105" s="30">
         <v>105</v>
       </c>
-      <c r="G105" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" s="29">
+      <c r="G105" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="30">
         <v>1</v>
       </c>
       <c r="I105" s="28">
@@ -7103,36 +7106,36 @@
       <c r="J105" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K105" s="29">
+      <c r="K105" s="30">
         <v>-1</v>
       </c>
-      <c r="L105" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" s="29" customFormat="1" spans="1:12">
-      <c r="A106" s="29">
+      <c r="L105" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" s="30" customFormat="1" spans="1:12">
+      <c r="A106" s="30">
         <v>30006</v>
       </c>
-      <c r="B106" s="29">
-        <v>1</v>
-      </c>
-      <c r="C106" s="29" t="s">
+      <c r="B106" s="30">
+        <v>1</v>
+      </c>
+      <c r="C106" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="D106" s="29" t="s">
+      <c r="D106" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="29" t="s">
+      <c r="E106" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F106" s="29">
+      <c r="F106" s="30">
         <v>106</v>
       </c>
-      <c r="G106" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H106" s="29">
+      <c r="G106" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="30">
         <v>1</v>
       </c>
       <c r="I106" s="28">
@@ -7141,36 +7144,36 @@
       <c r="J106" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K106" s="29">
+      <c r="K106" s="30">
         <v>-1</v>
       </c>
-      <c r="L106" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" s="29" customFormat="1" spans="1:12">
-      <c r="A107" s="29">
+      <c r="L106" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" s="30" customFormat="1" spans="1:12">
+      <c r="A107" s="30">
         <v>30007</v>
       </c>
-      <c r="B107" s="29">
-        <v>1</v>
-      </c>
-      <c r="C107" s="29" t="s">
+      <c r="B107" s="30">
+        <v>1</v>
+      </c>
+      <c r="C107" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="D107" s="29" t="s">
+      <c r="D107" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="29" t="s">
+      <c r="E107" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F107" s="29">
+      <c r="F107" s="30">
         <v>107</v>
       </c>
-      <c r="G107" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H107" s="29">
+      <c r="G107" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" s="30">
         <v>1</v>
       </c>
       <c r="I107" s="28">
@@ -7179,36 +7182,36 @@
       <c r="J107" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K107" s="29">
+      <c r="K107" s="30">
         <v>-1</v>
       </c>
-      <c r="L107" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" s="29" customFormat="1" spans="1:12">
-      <c r="A108" s="29">
+      <c r="L107" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" s="30" customFormat="1" spans="1:12">
+      <c r="A108" s="30">
         <v>30008</v>
       </c>
-      <c r="B108" s="29">
-        <v>1</v>
-      </c>
-      <c r="C108" s="29" t="s">
+      <c r="B108" s="30">
+        <v>1</v>
+      </c>
+      <c r="C108" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="D108" s="29" t="s">
+      <c r="D108" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="29" t="s">
+      <c r="E108" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F108" s="29">
+      <c r="F108" s="30">
         <v>108</v>
       </c>
-      <c r="G108" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H108" s="29">
+      <c r="G108" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="30">
         <v>1</v>
       </c>
       <c r="I108" s="28">
@@ -7217,36 +7220,36 @@
       <c r="J108" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K108" s="29">
+      <c r="K108" s="30">
         <v>-1</v>
       </c>
-      <c r="L108" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" s="29" customFormat="1" spans="1:12">
-      <c r="A109" s="29">
+      <c r="L108" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" s="30" customFormat="1" spans="1:12">
+      <c r="A109" s="30">
         <v>30009</v>
       </c>
-      <c r="B109" s="29">
-        <v>1</v>
-      </c>
-      <c r="C109" s="29" t="s">
+      <c r="B109" s="30">
+        <v>1</v>
+      </c>
+      <c r="C109" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="D109" s="29" t="s">
+      <c r="D109" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E109" s="29" t="s">
+      <c r="E109" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F109" s="29">
+      <c r="F109" s="30">
         <v>109</v>
       </c>
-      <c r="G109" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H109" s="29">
+      <c r="G109" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" s="30">
         <v>1</v>
       </c>
       <c r="I109" s="28">
@@ -7255,36 +7258,36 @@
       <c r="J109" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K109" s="29">
+      <c r="K109" s="30">
         <v>-1</v>
       </c>
-      <c r="L109" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" s="29" customFormat="1" spans="1:12">
-      <c r="A110" s="29">
+      <c r="L109" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" s="30" customFormat="1" spans="1:12">
+      <c r="A110" s="30">
         <v>30010</v>
       </c>
-      <c r="B110" s="29">
-        <v>1</v>
-      </c>
-      <c r="C110" s="29" t="s">
+      <c r="B110" s="30">
+        <v>1</v>
+      </c>
+      <c r="C110" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D110" s="29" t="s">
+      <c r="D110" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E110" s="29" t="s">
+      <c r="E110" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F110" s="29">
+      <c r="F110" s="30">
         <v>110</v>
       </c>
-      <c r="G110" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="29">
+      <c r="G110" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="30">
         <v>1</v>
       </c>
       <c r="I110" s="28">
@@ -7293,36 +7296,36 @@
       <c r="J110" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K110" s="29">
+      <c r="K110" s="30">
         <v>-1</v>
       </c>
-      <c r="L110" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" s="29" customFormat="1" spans="1:12">
-      <c r="A111" s="29">
+      <c r="L110" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" s="30" customFormat="1" spans="1:12">
+      <c r="A111" s="30">
         <v>30011</v>
       </c>
-      <c r="B111" s="29">
-        <v>1</v>
-      </c>
-      <c r="C111" s="29" t="s">
+      <c r="B111" s="30">
+        <v>1</v>
+      </c>
+      <c r="C111" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="D111" s="29" t="s">
+      <c r="D111" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E111" s="29" t="s">
+      <c r="E111" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F111" s="29">
+      <c r="F111" s="30">
         <v>111</v>
       </c>
-      <c r="G111" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="29">
+      <c r="G111" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="30">
         <v>1</v>
       </c>
       <c r="I111" s="28">
@@ -7331,36 +7334,36 @@
       <c r="J111" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K111" s="29">
+      <c r="K111" s="30">
         <v>-1</v>
       </c>
-      <c r="L111" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" s="29" customFormat="1" spans="1:12">
-      <c r="A112" s="29">
+      <c r="L111" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" s="30" customFormat="1" spans="1:12">
+      <c r="A112" s="30">
         <v>30012</v>
       </c>
-      <c r="B112" s="29">
-        <v>1</v>
-      </c>
-      <c r="C112" s="29" t="s">
+      <c r="B112" s="30">
+        <v>1</v>
+      </c>
+      <c r="C112" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D112" s="29" t="s">
+      <c r="D112" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E112" s="29" t="s">
+      <c r="E112" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F112" s="29">
+      <c r="F112" s="30">
         <v>112</v>
       </c>
-      <c r="G112" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="29">
+      <c r="G112" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="30">
         <v>7</v>
       </c>
       <c r="I112" s="28">
@@ -7369,36 +7372,36 @@
       <c r="J112" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K112" s="29">
+      <c r="K112" s="30">
         <v>-1</v>
       </c>
-      <c r="L112" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" s="29" customFormat="1" spans="1:12">
-      <c r="A113" s="29">
+      <c r="L112" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" s="30" customFormat="1" spans="1:12">
+      <c r="A113" s="30">
         <v>30013</v>
       </c>
-      <c r="B113" s="29">
-        <v>1</v>
-      </c>
-      <c r="C113" s="29" t="s">
+      <c r="B113" s="30">
+        <v>1</v>
+      </c>
+      <c r="C113" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D113" s="29" t="s">
+      <c r="D113" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E113" s="29" t="s">
+      <c r="E113" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F113" s="29">
+      <c r="F113" s="30">
         <v>113</v>
       </c>
-      <c r="G113" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="29">
+      <c r="G113" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="30">
         <v>7</v>
       </c>
       <c r="I113" s="28">
@@ -7407,36 +7410,36 @@
       <c r="J113" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K113" s="29">
+      <c r="K113" s="30">
         <v>-1</v>
       </c>
-      <c r="L113" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" s="29" customFormat="1" spans="1:12">
-      <c r="A114" s="29">
+      <c r="L113" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" s="30" customFormat="1" spans="1:12">
+      <c r="A114" s="30">
         <v>30014</v>
       </c>
-      <c r="B114" s="29">
-        <v>1</v>
-      </c>
-      <c r="C114" s="29" t="s">
+      <c r="B114" s="30">
+        <v>1</v>
+      </c>
+      <c r="C114" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="D114" s="29" t="s">
+      <c r="D114" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="29" t="s">
+      <c r="E114" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F114" s="29">
+      <c r="F114" s="30">
         <v>114</v>
       </c>
-      <c r="G114" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="29">
+      <c r="G114" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="30">
         <v>7</v>
       </c>
       <c r="I114" s="28">
@@ -7445,36 +7448,36 @@
       <c r="J114" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K114" s="29">
+      <c r="K114" s="30">
         <v>-1</v>
       </c>
-      <c r="L114" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" s="29" customFormat="1" spans="1:12">
-      <c r="A115" s="29">
+      <c r="L114" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" s="30" customFormat="1" spans="1:12">
+      <c r="A115" s="30">
         <v>30015</v>
       </c>
-      <c r="B115" s="29">
-        <v>1</v>
-      </c>
-      <c r="C115" s="29" t="s">
+      <c r="B115" s="30">
+        <v>1</v>
+      </c>
+      <c r="C115" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="D115" s="29" t="s">
+      <c r="D115" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="29" t="s">
+      <c r="E115" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F115" s="29">
+      <c r="F115" s="30">
         <v>115</v>
       </c>
-      <c r="G115" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="29">
+      <c r="G115" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="30">
         <v>7</v>
       </c>
       <c r="I115" s="28">
@@ -7483,36 +7486,36 @@
       <c r="J115" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K115" s="29">
+      <c r="K115" s="30">
         <v>-1</v>
       </c>
-      <c r="L115" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" s="29" customFormat="1" spans="1:12">
-      <c r="A116" s="29">
+      <c r="L115" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" s="30" customFormat="1" spans="1:12">
+      <c r="A116" s="30">
         <v>30016</v>
       </c>
-      <c r="B116" s="29">
-        <v>1</v>
-      </c>
-      <c r="C116" s="29" t="s">
+      <c r="B116" s="30">
+        <v>1</v>
+      </c>
+      <c r="C116" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="D116" s="29" t="s">
+      <c r="D116" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="29" t="s">
+      <c r="E116" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F116" s="29">
+      <c r="F116" s="30">
         <v>116</v>
       </c>
-      <c r="G116" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="29">
+      <c r="G116" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="30">
         <v>7</v>
       </c>
       <c r="I116" s="28">
@@ -7521,36 +7524,36 @@
       <c r="J116" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K116" s="29">
+      <c r="K116" s="30">
         <v>-1</v>
       </c>
-      <c r="L116" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" s="29" customFormat="1" spans="1:12">
-      <c r="A117" s="29">
+      <c r="L116" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" s="30" customFormat="1" spans="1:12">
+      <c r="A117" s="30">
         <v>30017</v>
       </c>
-      <c r="B117" s="29">
-        <v>1</v>
-      </c>
-      <c r="C117" s="29" t="s">
+      <c r="B117" s="30">
+        <v>1</v>
+      </c>
+      <c r="C117" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D117" s="29" t="s">
+      <c r="D117" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E117" s="29" t="s">
+      <c r="E117" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F117" s="29">
+      <c r="F117" s="30">
         <v>117</v>
       </c>
-      <c r="G117" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="29">
+      <c r="G117" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="30">
         <v>7</v>
       </c>
       <c r="I117" s="28">
@@ -7559,36 +7562,36 @@
       <c r="J117" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K117" s="29">
+      <c r="K117" s="30">
         <v>-1</v>
       </c>
-      <c r="L117" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" s="29" customFormat="1" spans="1:12">
-      <c r="A118" s="29">
+      <c r="L117" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" s="30" customFormat="1" spans="1:12">
+      <c r="A118" s="30">
         <v>30018</v>
       </c>
-      <c r="B118" s="29">
-        <v>1</v>
-      </c>
-      <c r="C118" s="29" t="s">
+      <c r="B118" s="30">
+        <v>1</v>
+      </c>
+      <c r="C118" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="D118" s="29" t="s">
+      <c r="D118" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="29" t="s">
+      <c r="E118" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F118" s="29">
+      <c r="F118" s="30">
         <v>118</v>
       </c>
-      <c r="G118" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="29">
+      <c r="G118" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="30">
         <v>7</v>
       </c>
       <c r="I118" s="28">
@@ -7597,10 +7600,10 @@
       <c r="J118" s="28">
         <v>32503651200</v>
       </c>
-      <c r="K118" s="29">
+      <c r="K118" s="30">
         <v>-1</v>
       </c>
-      <c r="L118" s="29">
+      <c r="L118" s="30">
         <v>1</v>
       </c>
     </row>
@@ -7616,10 +7619,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
+      <selection pane="bottomLeft" activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7628,7 +7631,7 @@
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="47" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="48" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
@@ -7655,7 +7658,7 @@
       <c r="G1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="49" t="s">
         <v>203</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -7664,7 +7667,7 @@
       <c r="J1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="14">
@@ -7682,11 +7685,11 @@
       <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="76" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="77" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -7709,11 +7712,11 @@
       <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="78" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="77" t="s">
         <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7736,11 +7739,11 @@
       <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="78" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="77" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -7763,11 +7766,11 @@
       <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="76" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="77" t="s">
         <v>213</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -7794,13 +7797,13 @@
         <v>10</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="51">
+      <c r="H6" s="52">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -7821,7 +7824,7 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="48">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -7847,7 +7850,7 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="48">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -7873,7 +7876,7 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="48">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -7900,7 +7903,7 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="48">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -7926,7 +7929,7 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="48">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -7952,7 +7955,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="48">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -7978,7 +7981,7 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="48">
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -8004,7 +8007,7 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="48">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -8030,7 +8033,7 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="48">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -8056,7 +8059,7 @@
       <c r="F16" s="4">
         <v>1000</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="48">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -8082,7 +8085,7 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="48">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -8108,7 +8111,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="48">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -8134,7 +8137,7 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="48">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -8160,7 +8163,7 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="48">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -8186,7 +8189,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="48">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -8212,7 +8215,7 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="48">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -8238,7 +8241,7 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="48">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -8264,7 +8267,7 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="48">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -8290,7 +8293,7 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="48">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -8316,7 +8319,7 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="48">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -8342,7 +8345,7 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="48">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -8368,7 +8371,7 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="48">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -8394,7 +8397,7 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="48">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -8420,7 +8423,7 @@
       <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="48">
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -8446,7 +8449,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="48">
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -8472,7 +8475,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="48">
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -8498,7 +8501,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="48">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -8524,7 +8527,7 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="48">
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -8550,7 +8553,7 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="48">
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -8576,7 +8579,7 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="48">
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -8602,7 +8605,7 @@
       <c r="F37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="48">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -8628,7 +8631,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="48">
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -8654,7 +8657,7 @@
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="48">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -8680,7 +8683,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="48">
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -8706,7 +8709,7 @@
       <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="48">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -8732,7 +8735,7 @@
       <c r="F42" s="4">
         <v>50000</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="48">
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -8758,7 +8761,7 @@
       <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="48">
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -8784,7 +8787,7 @@
       <c r="F44" s="4">
         <v>100000</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H44" s="48">
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -8810,7 +8813,7 @@
       <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="H45" s="47">
+      <c r="H45" s="48">
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -8836,7 +8839,7 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="48">
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -8862,7 +8865,7 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="48">
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -8888,7 +8891,7 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="48">
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -8914,7 +8917,7 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="48">
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -8940,7 +8943,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="48">
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -8963,11 +8966,11 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="47" t="s">
+      <c r="G51" s="53"/>
+      <c r="H51" s="48" t="s">
         <v>223</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -8993,7 +8996,7 @@
       <c r="F52" s="4">
         <v>8</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="48">
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -9019,7 +9022,7 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="47">
+      <c r="H53" s="48">
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -9045,7 +9048,7 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="47">
+      <c r="H54" s="48">
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -9071,7 +9074,7 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="48">
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -9097,7 +9100,7 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="47">
+      <c r="H56" s="48">
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -9123,7 +9126,7 @@
       <c r="F57" s="4">
         <v>2000000</v>
       </c>
-      <c r="H57" s="47">
+      <c r="H57" s="48">
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -9241,7 +9244,7 @@
       <c r="F62" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="48" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9333,7 +9336,7 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="47">
+      <c r="H66" s="48">
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -9359,7 +9362,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="47">
+      <c r="H67" s="48">
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -9382,10 +9385,10 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="56">
         <v>99999999999</v>
       </c>
-      <c r="G68" s="55"/>
+      <c r="G68" s="56"/>
       <c r="I68" s="10" t="s">
         <v>230</v>
       </c>
@@ -9412,260 +9415,260 @@
       <c r="G69" s="4">
         <v>100000000</v>
       </c>
-      <c r="H69" s="47">
+      <c r="H69" s="48">
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="70" s="39" customFormat="1" spans="1:9">
-      <c r="A70" s="31">
+    <row r="70" s="40" customFormat="1" spans="1:9">
+      <c r="A70" s="32">
         <v>69</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70" s="32">
         <v>69</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="32">
         <v>69</v>
       </c>
-      <c r="E70" s="31">
+      <c r="E70" s="32">
         <v>0</v>
       </c>
-      <c r="F70" s="31" t="s">
+      <c r="F70" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="G70" s="31"/>
-      <c r="H70" s="38" t="s">
+      <c r="G70" s="32"/>
+      <c r="H70" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="I70" s="37" t="s">
+      <c r="I70" s="38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="71" s="39" customFormat="1" spans="1:9">
-      <c r="A71" s="31">
+    <row r="71" s="40" customFormat="1" spans="1:9">
+      <c r="A71" s="32">
         <v>70</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B71" s="32">
         <v>70</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="32">
         <v>70</v>
       </c>
-      <c r="E71" s="31">
+      <c r="E71" s="32">
         <v>0</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="32">
         <v>0</v>
       </c>
-      <c r="G71" s="31"/>
-      <c r="H71" s="56">
+      <c r="G71" s="32"/>
+      <c r="H71" s="57">
         <v>88</v>
       </c>
-      <c r="I71" s="31" t="s">
+      <c r="I71" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" s="39" customFormat="1" spans="1:9">
-      <c r="A72" s="31">
+    <row r="72" s="40" customFormat="1" spans="1:9">
+      <c r="A72" s="32">
         <v>71</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B72" s="32">
         <v>71</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D72" s="31">
+      <c r="D72" s="32">
         <v>71</v>
       </c>
-      <c r="E72" s="31">
+      <c r="E72" s="32">
         <v>0</v>
       </c>
-      <c r="F72" s="31">
-        <v>1</v>
-      </c>
-      <c r="G72" s="31"/>
-      <c r="H72" s="56">
+      <c r="F72" s="32">
+        <v>1</v>
+      </c>
+      <c r="G72" s="32"/>
+      <c r="H72" s="57">
         <v>89</v>
       </c>
-      <c r="I72" s="31" t="s">
+      <c r="I72" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" s="39" customFormat="1" spans="1:9">
-      <c r="A73" s="31">
+    <row r="73" s="40" customFormat="1" spans="1:9">
+      <c r="A73" s="32">
         <v>72</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="32">
         <v>72</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="31">
+      <c r="D73" s="32">
         <v>72</v>
       </c>
-      <c r="E73" s="31">
+      <c r="E73" s="32">
         <v>0</v>
       </c>
-      <c r="F73" s="31">
-        <v>1</v>
-      </c>
-      <c r="G73" s="31"/>
-      <c r="H73" s="56">
+      <c r="F73" s="32">
+        <v>1</v>
+      </c>
+      <c r="G73" s="32"/>
+      <c r="H73" s="57">
         <v>90</v>
       </c>
-      <c r="I73" s="31" t="s">
+      <c r="I73" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" s="39" customFormat="1" spans="1:9">
-      <c r="A74" s="31">
+    <row r="74" s="40" customFormat="1" spans="1:9">
+      <c r="A74" s="32">
         <v>73</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="32">
         <v>73</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="31">
+      <c r="D74" s="32">
         <v>73</v>
       </c>
-      <c r="E74" s="31">
+      <c r="E74" s="32">
         <v>0</v>
       </c>
-      <c r="F74" s="31">
-        <v>1</v>
-      </c>
-      <c r="G74" s="31"/>
-      <c r="H74" s="56">
+      <c r="F74" s="32">
+        <v>1</v>
+      </c>
+      <c r="G74" s="32"/>
+      <c r="H74" s="57">
         <v>91</v>
       </c>
-      <c r="I74" s="31" t="s">
+      <c r="I74" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="75" s="39" customFormat="1" spans="1:9">
-      <c r="A75" s="31">
+    <row r="75" s="40" customFormat="1" spans="1:9">
+      <c r="A75" s="32">
         <v>74</v>
       </c>
-      <c r="B75" s="31">
+      <c r="B75" s="32">
         <v>74</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="32">
         <v>74</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="32">
         <v>0</v>
       </c>
-      <c r="F75" s="31">
+      <c r="F75" s="32">
         <v>10</v>
       </c>
-      <c r="G75" s="31"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="31"/>
-    </row>
-    <row r="76" s="39" customFormat="1" spans="1:9">
-      <c r="A76" s="31">
+      <c r="G75" s="32"/>
+      <c r="H75" s="57"/>
+      <c r="I75" s="32"/>
+    </row>
+    <row r="76" s="40" customFormat="1" spans="1:9">
+      <c r="A76" s="32">
         <v>75</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76" s="32">
         <v>75</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D76" s="31">
+      <c r="D76" s="32">
         <v>75</v>
       </c>
-      <c r="E76" s="31">
+      <c r="E76" s="32">
         <v>0</v>
       </c>
-      <c r="F76" s="31">
+      <c r="F76" s="32">
         <v>10</v>
       </c>
-      <c r="G76" s="31"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="31"/>
-    </row>
-    <row r="77" s="39" customFormat="1" spans="1:9">
-      <c r="A77" s="31">
+      <c r="G76" s="32"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="32"/>
+    </row>
+    <row r="77" s="40" customFormat="1" spans="1:9">
+      <c r="A77" s="32">
         <v>76</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77" s="32">
         <v>76</v>
       </c>
-      <c r="C77" s="37" t="s">
+      <c r="C77" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D77" s="31">
+      <c r="D77" s="32">
         <v>76</v>
       </c>
-      <c r="E77" s="31">
+      <c r="E77" s="32">
         <v>29</v>
       </c>
-      <c r="F77" s="31">
+      <c r="F77" s="32">
         <v>1000000000</v>
       </c>
-      <c r="G77" s="31">
+      <c r="G77" s="32">
         <v>500000000</v>
       </c>
-      <c r="H77" s="56">
+      <c r="H77" s="57">
         <v>92</v>
       </c>
-      <c r="I77" s="31" t="s">
+      <c r="I77" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="78" s="39" customFormat="1" spans="1:9">
-      <c r="A78" s="31">
+    <row r="78" s="40" customFormat="1" spans="1:9">
+      <c r="A78" s="32">
         <v>77</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="32">
         <v>77</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="31">
+      <c r="D78" s="32">
         <v>77</v>
       </c>
-      <c r="E78" s="31">
+      <c r="E78" s="32">
         <v>30</v>
       </c>
-      <c r="F78" s="31">
+      <c r="F78" s="32">
         <v>4000000000</v>
       </c>
-      <c r="G78" s="31">
+      <c r="G78" s="32">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="56">
+      <c r="H78" s="57">
         <v>93</v>
       </c>
-      <c r="I78" s="31" t="s">
+      <c r="I78" s="32" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:9">
-      <c r="A79" s="57">
+      <c r="A79" s="58">
         <v>78</v>
       </c>
-      <c r="B79" s="57">
+      <c r="B79" s="58">
         <v>78</v>
       </c>
-      <c r="C79" s="40"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="8">
         <v>78</v>
       </c>
@@ -9674,7 +9677,7 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="58">
+      <c r="H79" s="59">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
@@ -9682,13 +9685,13 @@
       </c>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:9">
-      <c r="A80" s="57">
+      <c r="A80" s="58">
         <v>79</v>
       </c>
-      <c r="B80" s="57">
+      <c r="B80" s="58">
         <v>79</v>
       </c>
-      <c r="C80" s="40"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="8">
         <v>79</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="58">
+      <c r="H80" s="59">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -9705,13 +9708,13 @@
       </c>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:9">
-      <c r="A81" s="57">
+      <c r="A81" s="58">
         <v>80</v>
       </c>
-      <c r="B81" s="57">
+      <c r="B81" s="58">
         <v>80</v>
       </c>
-      <c r="C81" s="40"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="8">
         <v>80</v>
       </c>
@@ -9720,10 +9723,10 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="58">
+      <c r="H81" s="59">
         <v>96</v>
       </c>
-      <c r="I81" s="40" t="s">
+      <c r="I81" s="41" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9734,7 +9737,7 @@
       <c r="B82" s="20">
         <v>81</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="44" t="s">
         <v>239</v>
       </c>
       <c r="D82" s="20">
@@ -9749,18 +9752,18 @@
       <c r="G82" s="20">
         <v>500000000</v>
       </c>
-      <c r="H82" s="59">
+      <c r="H82" s="60">
         <v>97</v>
       </c>
-      <c r="I82" s="43" t="s">
+      <c r="I82" s="44" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="29">
+      <c r="A83" s="30">
         <v>82</v>
       </c>
-      <c r="B83" s="29">
+      <c r="B83" s="30">
         <v>82</v>
       </c>
       <c r="C83" s="21" t="s">
@@ -9776,18 +9779,18 @@
       <c r="G83" s="21">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="60">
+      <c r="H83" s="61">
         <v>98</v>
       </c>
       <c r="I83" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" s="39" customFormat="1" spans="1:9">
-      <c r="A84" s="29">
+    <row r="84" s="40" customFormat="1" spans="1:9">
+      <c r="A84" s="30">
         <v>83</v>
       </c>
-      <c r="B84" s="29">
+      <c r="B84" s="30">
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
@@ -9803,18 +9806,18 @@
       <c r="G84" s="21">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="60">
+      <c r="H84" s="61">
         <v>99</v>
       </c>
       <c r="I84" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" s="39" customFormat="1" spans="1:9">
-      <c r="A85" s="29">
+    <row r="85" s="40" customFormat="1" spans="1:9">
+      <c r="A85" s="30">
         <v>84</v>
       </c>
-      <c r="B85" s="29">
+      <c r="B85" s="30">
         <v>84</v>
       </c>
       <c r="C85" s="21" t="s">
@@ -9830,7 +9833,7 @@
       <c r="G85" s="21">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="60">
+      <c r="H85" s="61">
         <v>100</v>
       </c>
       <c r="I85" s="21" t="s">
@@ -9844,7 +9847,7 @@
       <c r="B86" s="26">
         <v>85</v>
       </c>
-      <c r="D86" s="31">
+      <c r="D86" s="32">
         <v>85</v>
       </c>
       <c r="E86" s="4">
@@ -9873,7 +9876,7 @@
       <c r="C87" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D87" s="31">
+      <c r="D87" s="32">
         <v>86</v>
       </c>
       <c r="E87" s="4">
@@ -9896,7 +9899,7 @@
       <c r="C88" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D88" s="31">
+      <c r="D88" s="32">
         <v>87</v>
       </c>
       <c r="E88" s="4">
@@ -9919,7 +9922,7 @@
       <c r="C89" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D89" s="31">
+      <c r="D89" s="32">
         <v>88</v>
       </c>
       <c r="E89" s="4">
@@ -9942,7 +9945,7 @@
       <c r="C90" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D90" s="31">
+      <c r="D90" s="32">
         <v>89</v>
       </c>
       <c r="E90" s="4">
@@ -9962,7 +9965,7 @@
       <c r="B91" s="26">
         <v>90</v>
       </c>
-      <c r="C91" s="40"/>
+      <c r="C91" s="41"/>
       <c r="D91" s="8">
         <v>90</v>
       </c>
@@ -9971,7 +9974,7 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="58">
+      <c r="H91" s="59">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
@@ -9985,7 +9988,7 @@
       <c r="B92" s="26">
         <v>91</v>
       </c>
-      <c r="C92" s="40"/>
+      <c r="C92" s="41"/>
       <c r="D92" s="8">
         <v>91</v>
       </c>
@@ -9994,7 +9997,7 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="58">
+      <c r="H92" s="59">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
@@ -10008,7 +10011,7 @@
       <c r="B93" s="26">
         <v>92</v>
       </c>
-      <c r="C93" s="40"/>
+      <c r="C93" s="41"/>
       <c r="D93" s="8">
         <v>92</v>
       </c>
@@ -10017,10 +10020,10 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="58">
+      <c r="H93" s="59">
         <v>109</v>
       </c>
-      <c r="I93" s="40" t="s">
+      <c r="I93" s="41" t="s">
         <v>209</v>
       </c>
     </row>
@@ -10080,7 +10083,7 @@
       <c r="F96" s="4">
         <v>30000</v>
       </c>
-      <c r="H96" s="47">
+      <c r="H96" s="48">
         <v>120</v>
       </c>
       <c r="I96" s="10" t="s">
@@ -10091,23 +10094,23 @@
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="61">
+      <c r="B97" s="62">
         <v>96</v>
       </c>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="63" t="s">
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="64" t="s">
+      <c r="G97" s="63"/>
+      <c r="H97" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="I97" s="63" t="s">
+      <c r="I97" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="J97" s="44"/>
+      <c r="J97" s="45"/>
     </row>
     <row r="98" ht="71.25" spans="1:9">
       <c r="A98" s="4">
@@ -10119,10 +10122,10 @@
       <c r="D98" s="4">
         <v>96</v>
       </c>
-      <c r="F98" s="65" t="s">
+      <c r="F98" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="H98" s="65" t="s">
+      <c r="H98" s="66" t="s">
         <v>249</v>
       </c>
       <c r="I98" s="10" t="s">
@@ -10199,11 +10202,11 @@
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="66" t="s">
+      <c r="F102" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="G102" s="66"/>
-      <c r="H102" s="59" t="s">
+      <c r="G102" s="67"/>
+      <c r="H102" s="60" t="s">
         <v>256</v>
       </c>
       <c r="I102" s="20" t="s">
@@ -10220,11 +10223,11 @@
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="66" t="s">
+      <c r="F103" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="G103" s="66"/>
-      <c r="H103" s="59" t="s">
+      <c r="G103" s="67"/>
+      <c r="H103" s="60" t="s">
         <v>257</v>
       </c>
       <c r="I103" s="20" t="s">
@@ -10241,22 +10244,22 @@
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="66" t="s">
+      <c r="F104" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="G104" s="66"/>
-      <c r="H104" s="59" t="s">
+      <c r="G104" s="67"/>
+      <c r="H104" s="60" t="s">
         <v>258</v>
       </c>
       <c r="I104" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="105" s="46" customFormat="1" spans="1:9">
-      <c r="A105" s="29">
+    <row r="105" s="47" customFormat="1" spans="1:9">
+      <c r="A105" s="30">
         <v>104</v>
       </c>
-      <c r="B105" s="29">
+      <c r="B105" s="30">
         <v>104</v>
       </c>
       <c r="C105" s="21"/>
@@ -10268,18 +10271,18 @@
         <v>1</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="60" t="s">
+      <c r="H105" s="61" t="s">
         <v>259</v>
       </c>
       <c r="I105" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" s="46" customFormat="1" spans="1:9">
-      <c r="A106" s="29">
+    <row r="106" s="47" customFormat="1" spans="1:9">
+      <c r="A106" s="30">
         <v>105</v>
       </c>
-      <c r="B106" s="29">
+      <c r="B106" s="30">
         <v>105</v>
       </c>
       <c r="C106" s="21"/>
@@ -10291,18 +10294,18 @@
         <v>1</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="61" t="s">
         <v>259</v>
       </c>
       <c r="I106" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="107" s="46" customFormat="1" spans="1:9">
-      <c r="A107" s="29">
+    <row r="107" s="47" customFormat="1" spans="1:9">
+      <c r="A107" s="30">
         <v>106</v>
       </c>
-      <c r="B107" s="29">
+      <c r="B107" s="30">
         <v>106</v>
       </c>
       <c r="C107" s="21"/>
@@ -10314,18 +10317,18 @@
         <v>300000</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="60" t="s">
+      <c r="H107" s="61" t="s">
         <v>259</v>
       </c>
       <c r="I107" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108" s="46" customFormat="1" spans="1:9">
-      <c r="A108" s="29">
+    <row r="108" s="47" customFormat="1" spans="1:9">
+      <c r="A108" s="30">
         <v>107</v>
       </c>
-      <c r="B108" s="29">
+      <c r="B108" s="30">
         <v>107</v>
       </c>
       <c r="C108" s="21"/>
@@ -10337,18 +10340,18 @@
         <v>100</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="60" t="s">
+      <c r="H108" s="61" t="s">
         <v>259</v>
       </c>
       <c r="I108" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109" s="46" customFormat="1" spans="1:9">
-      <c r="A109" s="29">
+    <row r="109" s="47" customFormat="1" spans="1:9">
+      <c r="A109" s="30">
         <v>108</v>
       </c>
-      <c r="B109" s="29">
+      <c r="B109" s="30">
         <v>108</v>
       </c>
       <c r="C109" s="21"/>
@@ -10360,18 +10363,18 @@
         <v>500</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="60" t="s">
+      <c r="H109" s="61" t="s">
         <v>259</v>
       </c>
       <c r="I109" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="110" s="46" customFormat="1" spans="1:9">
-      <c r="A110" s="29">
+    <row r="110" s="47" customFormat="1" spans="1:9">
+      <c r="A110" s="30">
         <v>109</v>
       </c>
-      <c r="B110" s="29">
+      <c r="B110" s="30">
         <v>109</v>
       </c>
       <c r="C110" s="21"/>
@@ -10383,18 +10386,18 @@
         <v>15</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="60" t="s">
+      <c r="H110" s="61" t="s">
         <v>259</v>
       </c>
       <c r="I110" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="111" s="46" customFormat="1" spans="1:9">
-      <c r="A111" s="29">
+    <row r="111" s="47" customFormat="1" spans="1:9">
+      <c r="A111" s="30">
         <v>110</v>
       </c>
-      <c r="B111" s="29">
+      <c r="B111" s="30">
         <v>110</v>
       </c>
       <c r="C111" s="21"/>
@@ -10406,18 +10409,18 @@
         <v>15</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="60" t="s">
+      <c r="H111" s="61" t="s">
         <v>259</v>
       </c>
       <c r="I111" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="112" s="46" customFormat="1" spans="1:9">
-      <c r="A112" s="29">
+    <row r="112" s="47" customFormat="1" spans="1:9">
+      <c r="A112" s="30">
         <v>111</v>
       </c>
-      <c r="B112" s="29">
+      <c r="B112" s="30">
         <v>111</v>
       </c>
       <c r="C112" s="21"/>
@@ -10429,18 +10432,18 @@
         <v>1</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="60" t="s">
+      <c r="H112" s="61" t="s">
         <v>259</v>
       </c>
       <c r="I112" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="113" s="46" customFormat="1" spans="1:9">
-      <c r="A113" s="29">
+    <row r="113" s="47" customFormat="1" spans="1:9">
+      <c r="A113" s="30">
         <v>112</v>
       </c>
-      <c r="B113" s="29">
+      <c r="B113" s="30">
         <v>112</v>
       </c>
       <c r="C113" s="21"/>
@@ -10452,18 +10455,18 @@
         <v>3</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="60" t="s">
+      <c r="H113" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I113" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="114" s="46" customFormat="1" spans="1:9">
-      <c r="A114" s="29">
+    <row r="114" s="47" customFormat="1" spans="1:9">
+      <c r="A114" s="30">
         <v>113</v>
       </c>
-      <c r="B114" s="29">
+      <c r="B114" s="30">
         <v>113</v>
       </c>
       <c r="C114" s="21"/>
@@ -10475,18 +10478,18 @@
         <v>1</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="60" t="s">
+      <c r="H114" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I114" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="115" s="46" customFormat="1" spans="1:9">
-      <c r="A115" s="29">
+    <row r="115" s="47" customFormat="1" spans="1:9">
+      <c r="A115" s="30">
         <v>114</v>
       </c>
-      <c r="B115" s="29">
+      <c r="B115" s="30">
         <v>114</v>
       </c>
       <c r="C115" s="21"/>
@@ -10498,18 +10501,18 @@
         <v>10</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="60" t="s">
+      <c r="H115" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I115" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="116" s="46" customFormat="1" spans="1:9">
-      <c r="A116" s="29">
+    <row r="116" s="47" customFormat="1" spans="1:9">
+      <c r="A116" s="30">
         <v>115</v>
       </c>
-      <c r="B116" s="29">
+      <c r="B116" s="30">
         <v>115</v>
       </c>
       <c r="C116" s="21"/>
@@ -10521,18 +10524,18 @@
         <v>12000</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="60" t="s">
+      <c r="H116" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I116" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="117" s="46" customFormat="1" spans="1:9">
-      <c r="A117" s="29">
+    <row r="117" s="47" customFormat="1" spans="1:9">
+      <c r="A117" s="30">
         <v>116</v>
       </c>
-      <c r="B117" s="29">
+      <c r="B117" s="30">
         <v>116</v>
       </c>
       <c r="C117" s="21"/>
@@ -10544,18 +10547,18 @@
         <v>300</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="60" t="s">
+      <c r="H117" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I117" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="118" s="46" customFormat="1" spans="1:9">
-      <c r="A118" s="29">
+    <row r="118" s="47" customFormat="1" spans="1:9">
+      <c r="A118" s="30">
         <v>117</v>
       </c>
-      <c r="B118" s="29">
+      <c r="B118" s="30">
         <v>117</v>
       </c>
       <c r="C118" s="21"/>
@@ -10567,18 +10570,18 @@
         <v>1000000</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="60" t="s">
+      <c r="H118" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I118" s="21" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="119" s="46" customFormat="1" spans="1:9">
-      <c r="A119" s="29">
+    <row r="119" s="47" customFormat="1" spans="1:9">
+      <c r="A119" s="30">
         <v>118</v>
       </c>
-      <c r="B119" s="29">
+      <c r="B119" s="30">
         <v>118</v>
       </c>
       <c r="C119" s="21"/>
@@ -10590,7 +10593,7 @@
         <v>100</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="60" t="s">
+      <c r="H119" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I119" s="21" t="s">
@@ -10646,11 +10649,11 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" s="39" customFormat="1" spans="1:9">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31">
+    <row r="2" s="40" customFormat="1" spans="1:9">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32">
         <v>1</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -10659,15 +10662,15 @@
       <c r="D2" s="26">
         <v>1</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-    </row>
-    <row r="3" s="39" customFormat="1" spans="1:9">
-      <c r="A3" s="31">
+      <c r="E2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+    </row>
+    <row r="3" s="40" customFormat="1" spans="1:9">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="32">
         <v>2</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -10676,15 +10679,15 @@
       <c r="D3" s="26">
         <v>2</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-    </row>
-    <row r="4" s="39" customFormat="1" spans="1:9">
-      <c r="A4" s="31">
+      <c r="E3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+    </row>
+    <row r="4" s="40" customFormat="1" spans="1:9">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="32">
         <v>3</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -10693,15 +10696,15 @@
       <c r="D4" s="26">
         <v>3</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" s="39" customFormat="1" spans="1:9">
-      <c r="A5" s="31">
+      <c r="E4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" s="40" customFormat="1" spans="1:9">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="32">
         <v>4</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -10710,15 +10713,15 @@
       <c r="D5" s="26">
         <v>4</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-    </row>
-    <row r="6" s="39" customFormat="1" spans="1:9">
-      <c r="A6" s="31">
+      <c r="E5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+    </row>
+    <row r="6" s="40" customFormat="1" spans="1:9">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="32">
         <v>5</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -10727,1437 +10730,1437 @@
       <c r="D6" s="26">
         <v>5</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-    </row>
-    <row r="7" s="39" customFormat="1" spans="1:9">
-      <c r="A7" s="31">
+      <c r="E6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+    </row>
+    <row r="7" s="40" customFormat="1" spans="1:9">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="32">
         <v>6</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="32">
         <v>6</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" s="39" customFormat="1" spans="1:9">
-      <c r="A8" s="31">
+      <c r="E7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+    </row>
+    <row r="8" s="40" customFormat="1" spans="1:9">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="32">
         <v>7</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="32">
         <v>15</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-    </row>
-    <row r="9" s="39" customFormat="1" spans="1:9">
-      <c r="A9" s="31">
+      <c r="E8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" s="40" customFormat="1" spans="1:9">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="32">
         <v>8</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="32">
         <v>7</v>
       </c>
-      <c r="E9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-    </row>
-    <row r="10" s="39" customFormat="1" spans="1:9">
-      <c r="A10" s="31">
+      <c r="E9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+    </row>
+    <row r="10" s="40" customFormat="1" spans="1:9">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="32">
         <v>9</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="32">
         <v>0</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" s="39" customFormat="1" spans="1:9">
-      <c r="A11" s="31">
+      <c r="E10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" s="40" customFormat="1" spans="1:9">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="32">
         <v>10</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="32">
         <v>7</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-    </row>
-    <row r="12" s="39" customFormat="1" spans="1:9">
-      <c r="A12" s="31">
+      <c r="E11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+    </row>
+    <row r="12" s="40" customFormat="1" spans="1:9">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="32">
         <v>11</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="32">
         <v>10</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" s="39" customFormat="1" spans="1:9">
-      <c r="A13" s="31">
+      <c r="E12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+    </row>
+    <row r="13" s="40" customFormat="1" spans="1:9">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="32">
         <v>12</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="32">
         <v>7</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-    </row>
-    <row r="14" s="39" customFormat="1" spans="1:9">
-      <c r="A14" s="31">
+      <c r="E13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+    </row>
+    <row r="14" s="40" customFormat="1" spans="1:9">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="32">
         <v>13</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="32">
         <v>7</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-    </row>
-    <row r="15" s="39" customFormat="1" spans="1:9">
-      <c r="A15" s="31">
+      <c r="E14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+    </row>
+    <row r="15" s="40" customFormat="1" spans="1:9">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="32">
         <v>14</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="32">
         <v>18</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" s="39" customFormat="1" spans="1:9">
-      <c r="A16" s="31">
+      <c r="E15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+    </row>
+    <row r="16" s="40" customFormat="1" spans="1:9">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="32">
         <v>15</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="32">
         <v>0</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" s="39" customFormat="1" spans="1:9">
-      <c r="A17" s="31">
+      <c r="E16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" s="40" customFormat="1" spans="1:9">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="32">
         <v>16</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="32">
         <v>19</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" s="39" customFormat="1" spans="1:9">
-      <c r="A18" s="31">
+      <c r="E17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+    </row>
+    <row r="18" s="40" customFormat="1" spans="1:9">
+      <c r="A18" s="32">
         <v>17</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="32">
         <v>17</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="32">
         <v>10</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" s="39" customFormat="1" spans="1:9">
-      <c r="A19" s="31">
+      <c r="E18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+    </row>
+    <row r="19" s="40" customFormat="1" spans="1:9">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="32">
         <v>18</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="32">
         <v>12</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" s="39" customFormat="1" spans="1:9">
-      <c r="A20" s="31">
+      <c r="E19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+    </row>
+    <row r="20" s="40" customFormat="1" spans="1:9">
+      <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="32">
         <v>19</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="32">
         <v>11</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-    </row>
-    <row r="21" s="39" customFormat="1" spans="1:9">
-      <c r="A21" s="31">
+      <c r="E20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" s="40" customFormat="1" spans="1:9">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="32">
         <v>20</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="32">
         <v>10</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" s="39" customFormat="1" spans="1:9">
-      <c r="A22" s="31">
+      <c r="E21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" s="40" customFormat="1" spans="1:9">
+      <c r="A22" s="32">
         <v>21</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="32">
         <v>21</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="32">
         <v>8</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-    </row>
-    <row r="23" s="39" customFormat="1" spans="1:9">
-      <c r="A23" s="31">
+      <c r="E22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" s="40" customFormat="1" spans="1:9">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="32">
         <v>22</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="32">
         <v>11</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" s="39" customFormat="1" spans="1:9">
-      <c r="A24" s="31">
+      <c r="E23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" s="40" customFormat="1" spans="1:9">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="32">
         <v>23</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="32">
         <v>9</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" s="39" customFormat="1" spans="1:9">
-      <c r="A25" s="31">
+      <c r="E24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" s="40" customFormat="1" spans="1:9">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="32">
         <v>24</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="32">
         <v>9</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" s="39" customFormat="1" spans="1:9">
-      <c r="A26" s="31">
+      <c r="E25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" s="40" customFormat="1" spans="1:9">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="32">
         <v>25</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="32">
         <v>20</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" s="39" customFormat="1" spans="1:9">
-      <c r="A27" s="31">
+      <c r="E26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+    </row>
+    <row r="27" s="40" customFormat="1" spans="1:9">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="31">
+      <c r="B27" s="32">
         <v>26</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="32">
         <v>13</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" s="39" customFormat="1" spans="1:9">
-      <c r="A28" s="31">
+      <c r="E27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+    </row>
+    <row r="28" s="40" customFormat="1" spans="1:9">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="32">
         <v>27</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="32">
         <v>11</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" s="39" customFormat="1" spans="1:9">
-      <c r="A29" s="31">
+      <c r="E28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+    </row>
+    <row r="29" s="40" customFormat="1" spans="1:9">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="32">
         <v>28</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="32">
         <v>14</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" s="39" customFormat="1" spans="1:9">
-      <c r="A30" s="31">
+      <c r="E29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+    </row>
+    <row r="30" s="40" customFormat="1" spans="1:9">
+      <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="32">
         <v>29</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="32">
         <v>12</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" s="39" customFormat="1" spans="1:9">
-      <c r="A31" s="31">
+      <c r="E30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" s="40" customFormat="1" spans="1:9">
+      <c r="A31" s="32">
         <v>30</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B31" s="32">
         <v>30</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="D31" s="31">
+      <c r="D31" s="32">
         <v>21</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" s="39" customFormat="1" spans="1:9">
-      <c r="A32" s="31">
+      <c r="E31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" s="40" customFormat="1" spans="1:9">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B32" s="32">
         <v>31</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="32">
         <v>7</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" s="39" customFormat="1" spans="1:9">
-      <c r="A33" s="31">
+      <c r="E32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+    </row>
+    <row r="33" s="40" customFormat="1" spans="1:9">
+      <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B33" s="32">
         <v>32</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="32">
         <v>0</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" s="39" customFormat="1" spans="1:9">
-      <c r="A34" s="31">
+      <c r="E33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" s="40" customFormat="1" spans="1:9">
+      <c r="A34" s="32">
         <v>33</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="32">
         <v>33</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="32">
         <v>7</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-    </row>
-    <row r="35" s="39" customFormat="1" spans="1:9">
-      <c r="A35" s="31">
+      <c r="E34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" s="40" customFormat="1" spans="1:9">
+      <c r="A35" s="32">
         <v>34</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B35" s="32">
         <v>34</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="32">
         <v>10</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" s="39" customFormat="1" spans="1:9">
-      <c r="A36" s="31">
+      <c r="E35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" s="40" customFormat="1" spans="1:9">
+      <c r="A36" s="32">
         <v>35</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B36" s="32">
         <v>35</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="32">
         <v>7</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" s="39" customFormat="1" spans="1:9">
-      <c r="A37" s="31">
+      <c r="E36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" s="40" customFormat="1" spans="1:9">
+      <c r="A37" s="32">
         <v>36</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B37" s="32">
         <v>36</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="32">
         <v>0</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-    </row>
-    <row r="38" s="39" customFormat="1" spans="1:9">
-      <c r="A38" s="31">
+      <c r="E37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" s="40" customFormat="1" spans="1:9">
+      <c r="A38" s="32">
         <v>37</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B38" s="32">
         <v>37</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="32">
         <v>0</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-    </row>
-    <row r="39" s="39" customFormat="1" spans="1:9">
-      <c r="A39" s="31">
+      <c r="E38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" s="40" customFormat="1" spans="1:9">
+      <c r="A39" s="32">
         <v>38</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="32">
         <v>38</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="32">
         <v>24</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-    </row>
-    <row r="40" s="39" customFormat="1" spans="1:9">
-      <c r="A40" s="31">
+      <c r="E39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" s="40" customFormat="1" spans="1:9">
+      <c r="A40" s="32">
         <v>39</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="32">
         <v>39</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="32">
         <v>10</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-    </row>
-    <row r="41" s="39" customFormat="1" spans="1:9">
-      <c r="A41" s="31">
+      <c r="E40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" s="40" customFormat="1" spans="1:9">
+      <c r="A41" s="32">
         <v>40</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="32">
         <v>40</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="32">
         <v>7</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" s="39" customFormat="1" spans="1:9">
-      <c r="A42" s="31">
+      <c r="E41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" s="40" customFormat="1" spans="1:9">
+      <c r="A42" s="32">
         <v>41</v>
       </c>
-      <c r="B42" s="31">
+      <c r="B42" s="32">
         <v>41</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="32">
         <v>0</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-    </row>
-    <row r="43" s="39" customFormat="1" spans="1:9">
-      <c r="A43" s="31">
+      <c r="E42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" s="40" customFormat="1" spans="1:9">
+      <c r="A43" s="32">
         <v>42</v>
       </c>
-      <c r="B43" s="31">
+      <c r="B43" s="32">
         <v>42</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="32">
         <v>7</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" s="39" customFormat="1" spans="1:9">
-      <c r="A44" s="31">
+      <c r="E43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" s="40" customFormat="1" spans="1:9">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
-      <c r="B44" s="31">
+      <c r="B44" s="32">
         <v>43</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="32">
         <v>0</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-    </row>
-    <row r="45" s="39" customFormat="1" spans="1:9">
-      <c r="A45" s="31">
+      <c r="E44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" s="40" customFormat="1" spans="1:9">
+      <c r="A45" s="32">
         <v>44</v>
       </c>
-      <c r="B45" s="31">
+      <c r="B45" s="32">
         <v>44</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="32">
         <v>0</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-    </row>
-    <row r="46" s="39" customFormat="1" spans="1:9">
-      <c r="A46" s="31">
+      <c r="E45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" s="40" customFormat="1" spans="1:9">
+      <c r="A46" s="32">
         <v>45</v>
       </c>
-      <c r="B46" s="31">
+      <c r="B46" s="32">
         <v>45</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="32">
         <v>18</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-    </row>
-    <row r="47" s="39" customFormat="1" spans="1:9">
-      <c r="A47" s="31">
+      <c r="E46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" s="40" customFormat="1" spans="1:9">
+      <c r="A47" s="32">
         <v>46</v>
       </c>
-      <c r="B47" s="31">
+      <c r="B47" s="32">
         <v>46</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="32">
         <v>10</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-    </row>
-    <row r="48" s="39" customFormat="1" spans="1:9">
-      <c r="A48" s="31">
+      <c r="E47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" s="40" customFormat="1" spans="1:9">
+      <c r="A48" s="32">
         <v>47</v>
       </c>
-      <c r="B48" s="31">
+      <c r="B48" s="32">
         <v>47</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="32">
         <v>25</v>
       </c>
-      <c r="E48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-    </row>
-    <row r="49" s="39" customFormat="1" spans="1:9">
-      <c r="A49" s="31">
+      <c r="E48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" s="40" customFormat="1" spans="1:9">
+      <c r="A49" s="32">
         <v>48</v>
       </c>
-      <c r="B49" s="31">
+      <c r="B49" s="32">
         <v>48</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="32">
         <v>26</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-    </row>
-    <row r="50" s="39" customFormat="1" spans="1:9">
-      <c r="A50" s="31">
+      <c r="E49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" s="40" customFormat="1" spans="1:9">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
-      <c r="B50" s="31">
+      <c r="B50" s="32">
         <v>49</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="D50" s="31">
+      <c r="D50" s="32">
         <v>27</v>
       </c>
-      <c r="E50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-    </row>
-    <row r="51" s="39" customFormat="1" spans="1:9">
-      <c r="A51" s="31">
+      <c r="E50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" s="40" customFormat="1" spans="1:9">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
-      <c r="B51" s="31">
+      <c r="B51" s="32">
         <v>50</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="32">
         <v>0</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-    </row>
-    <row r="52" s="39" customFormat="1" spans="1:9">
-      <c r="A52" s="31">
+      <c r="E51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" s="40" customFormat="1" spans="1:9">
+      <c r="A52" s="32">
         <v>51</v>
       </c>
-      <c r="B52" s="31">
+      <c r="B52" s="32">
         <v>51</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="32">
         <v>15</v>
       </c>
-      <c r="E52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-    </row>
-    <row r="53" s="39" customFormat="1" spans="1:9">
-      <c r="A53" s="31">
+      <c r="E52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" s="40" customFormat="1" spans="1:9">
+      <c r="A53" s="32">
         <v>52</v>
       </c>
-      <c r="B53" s="31">
+      <c r="B53" s="32">
         <v>52</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D53" s="31">
+      <c r="D53" s="32">
         <v>17</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-    </row>
-    <row r="54" s="39" customFormat="1" spans="1:9">
-      <c r="A54" s="31">
+      <c r="E53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" s="40" customFormat="1" spans="1:9">
+      <c r="A54" s="32">
         <v>53</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="32">
         <v>53</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="31">
+      <c r="D54" s="32">
         <v>22</v>
       </c>
-      <c r="E54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-    </row>
-    <row r="55" s="39" customFormat="1" spans="1:9">
-      <c r="A55" s="31">
+      <c r="E54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" s="40" customFormat="1" spans="1:9">
+      <c r="A55" s="32">
         <v>54</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="32">
         <v>54</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="32">
         <v>22</v>
       </c>
-      <c r="E55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-    </row>
-    <row r="56" s="39" customFormat="1" spans="1:9">
-      <c r="A56" s="31">
+      <c r="E55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" s="40" customFormat="1" spans="1:9">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
-      <c r="B56" s="31">
+      <c r="B56" s="32">
         <v>55</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="31">
+      <c r="D56" s="32">
         <v>23</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" s="39" customFormat="1" spans="1:9">
-      <c r="A57" s="31">
+      <c r="E56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" s="40" customFormat="1" spans="1:9">
+      <c r="A57" s="32">
         <v>56</v>
       </c>
-      <c r="B57" s="31">
+      <c r="B57" s="32">
         <v>56</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="31">
+      <c r="D57" s="32">
         <v>0</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" s="39" customFormat="1" spans="1:9">
-      <c r="A58" s="31">
+      <c r="E57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" s="40" customFormat="1" spans="1:9">
+      <c r="A58" s="32">
         <v>57</v>
       </c>
-      <c r="B58" s="31">
+      <c r="B58" s="32">
         <v>57</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D58" s="31">
+      <c r="D58" s="32">
         <v>0</v>
       </c>
-      <c r="E58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-    </row>
-    <row r="59" s="39" customFormat="1" spans="1:9">
-      <c r="A59" s="31">
+      <c r="E58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" s="40" customFormat="1" spans="1:9">
+      <c r="A59" s="32">
         <v>58</v>
       </c>
-      <c r="B59" s="31">
+      <c r="B59" s="32">
         <v>58</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D59" s="31">
+      <c r="D59" s="32">
         <v>0</v>
       </c>
-      <c r="E59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-    </row>
-    <row r="60" s="39" customFormat="1" spans="1:9">
-      <c r="A60" s="31">
+      <c r="E59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" s="40" customFormat="1" spans="1:9">
+      <c r="A60" s="32">
         <v>59</v>
       </c>
-      <c r="B60" s="31">
+      <c r="B60" s="32">
         <v>59</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="32">
         <v>0</v>
       </c>
-      <c r="E60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" s="39" customFormat="1" spans="1:9">
-      <c r="A61" s="31">
+      <c r="E60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" s="40" customFormat="1" spans="1:9">
+      <c r="A61" s="32">
         <v>60</v>
       </c>
-      <c r="B61" s="31">
+      <c r="B61" s="32">
         <v>60</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D61" s="31">
+      <c r="D61" s="32">
         <v>0</v>
       </c>
-      <c r="E61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" s="39" customFormat="1" spans="1:9">
-      <c r="A62" s="31">
+      <c r="E61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" s="40" customFormat="1" spans="1:9">
+      <c r="A62" s="32">
         <v>61</v>
       </c>
-      <c r="B62" s="31">
+      <c r="B62" s="32">
         <v>61</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="D62" s="31">
+      <c r="D62" s="32">
         <v>0</v>
       </c>
-      <c r="E62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-    </row>
-    <row r="63" s="39" customFormat="1" spans="1:9">
-      <c r="A63" s="31">
+      <c r="E62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" s="40" customFormat="1" spans="1:9">
+      <c r="A63" s="32">
         <v>62</v>
       </c>
-      <c r="B63" s="31">
+      <c r="B63" s="32">
         <v>62</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D63" s="31">
+      <c r="D63" s="32">
         <v>0</v>
       </c>
-      <c r="E63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-    </row>
-    <row r="64" s="39" customFormat="1" spans="1:9">
-      <c r="A64" s="31">
+      <c r="E63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" s="40" customFormat="1" spans="1:9">
+      <c r="A64" s="32">
         <v>63</v>
       </c>
-      <c r="B64" s="31">
+      <c r="B64" s="32">
         <v>63</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="32">
         <v>0</v>
       </c>
-      <c r="E64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-    </row>
-    <row r="65" s="39" customFormat="1" spans="1:9">
-      <c r="A65" s="31">
+      <c r="E64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+    </row>
+    <row r="65" s="40" customFormat="1" spans="1:9">
+      <c r="A65" s="32">
         <v>64</v>
       </c>
-      <c r="B65" s="31">
+      <c r="B65" s="32">
         <v>64</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="32">
         <v>0</v>
       </c>
-      <c r="E65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-    </row>
-    <row r="66" s="39" customFormat="1" spans="1:9">
-      <c r="A66" s="31">
+      <c r="E65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" s="40" customFormat="1" spans="1:9">
+      <c r="A66" s="32">
         <v>65</v>
       </c>
-      <c r="B66" s="31">
+      <c r="B66" s="32">
         <v>65</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D66" s="31">
+      <c r="D66" s="32">
         <v>0</v>
       </c>
-      <c r="E66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-    </row>
-    <row r="67" s="39" customFormat="1" spans="1:9">
-      <c r="A67" s="31">
+      <c r="E66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+    </row>
+    <row r="67" s="40" customFormat="1" spans="1:9">
+      <c r="A67" s="32">
         <v>66</v>
       </c>
-      <c r="B67" s="31">
+      <c r="B67" s="32">
         <v>66</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="D67" s="31">
+      <c r="D67" s="32">
         <v>0</v>
       </c>
-      <c r="E67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-    </row>
-    <row r="68" s="39" customFormat="1" spans="1:9">
-      <c r="A68" s="31">
+      <c r="E67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+    </row>
+    <row r="68" s="40" customFormat="1" spans="1:9">
+      <c r="A68" s="32">
         <v>67</v>
       </c>
-      <c r="B68" s="31">
+      <c r="B68" s="32">
         <v>67</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D68" s="31">
+      <c r="D68" s="32">
         <v>0</v>
       </c>
-      <c r="E68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-    </row>
-    <row r="69" s="39" customFormat="1" spans="1:9">
-      <c r="A69" s="31">
+      <c r="E68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" s="40" customFormat="1" spans="1:9">
+      <c r="A69" s="32">
         <v>68</v>
       </c>
-      <c r="B69" s="31">
+      <c r="B69" s="32">
         <v>68</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="31">
+      <c r="D69" s="32">
         <v>28</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-    </row>
-    <row r="70" s="39" customFormat="1" spans="1:9">
-      <c r="A70" s="31">
+      <c r="E69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" s="40" customFormat="1" spans="1:9">
+      <c r="A70" s="32">
         <v>69</v>
       </c>
-      <c r="B70" s="31">
+      <c r="B70" s="32">
         <v>69</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="D70" s="31">
+      <c r="D70" s="32">
         <v>0</v>
       </c>
-      <c r="E70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-    </row>
-    <row r="71" s="39" customFormat="1" spans="1:9">
-      <c r="A71" s="31">
+      <c r="E70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+    </row>
+    <row r="71" s="40" customFormat="1" spans="1:9">
+      <c r="A71" s="32">
         <v>70</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B71" s="32">
         <v>70</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="32">
         <v>0</v>
       </c>
-      <c r="E71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-    </row>
-    <row r="72" s="39" customFormat="1" spans="1:9">
-      <c r="A72" s="31">
+      <c r="E71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+    </row>
+    <row r="72" s="40" customFormat="1" spans="1:9">
+      <c r="A72" s="32">
         <v>71</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B72" s="32">
         <v>71</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="D72" s="31">
+      <c r="D72" s="32">
         <v>0</v>
       </c>
-      <c r="E72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-    </row>
-    <row r="73" s="39" customFormat="1" spans="1:9">
-      <c r="A73" s="31">
+      <c r="E72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+    </row>
+    <row r="73" s="40" customFormat="1" spans="1:9">
+      <c r="A73" s="32">
         <v>72</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="32">
         <v>72</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="D73" s="31">
+      <c r="D73" s="32">
         <v>0</v>
       </c>
-      <c r="E73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-    </row>
-    <row r="74" s="39" customFormat="1" spans="1:9">
-      <c r="A74" s="31">
+      <c r="E73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+    </row>
+    <row r="74" s="40" customFormat="1" spans="1:9">
+      <c r="A74" s="32">
         <v>73</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="32">
         <v>73</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C74" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="31">
+      <c r="D74" s="32">
         <v>0</v>
       </c>
-      <c r="E74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-    </row>
-    <row r="75" s="39" customFormat="1" spans="1:9">
-      <c r="A75" s="31">
+      <c r="E74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+    </row>
+    <row r="75" s="40" customFormat="1" spans="1:9">
+      <c r="A75" s="32">
         <v>74</v>
       </c>
-      <c r="B75" s="31">
+      <c r="B75" s="32">
         <v>74</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C75" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D75" s="31">
+      <c r="D75" s="32">
         <v>0</v>
       </c>
-      <c r="E75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-    </row>
-    <row r="76" s="39" customFormat="1" spans="1:9">
-      <c r="A76" s="31">
+      <c r="E75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+    </row>
+    <row r="76" s="40" customFormat="1" spans="1:9">
+      <c r="A76" s="32">
         <v>75</v>
       </c>
-      <c r="B76" s="31">
+      <c r="B76" s="32">
         <v>75</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D76" s="31">
+      <c r="D76" s="32">
         <v>0</v>
       </c>
-      <c r="E76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-    </row>
-    <row r="77" s="39" customFormat="1" spans="1:9">
-      <c r="A77" s="31">
+      <c r="E76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+    </row>
+    <row r="77" s="40" customFormat="1" spans="1:9">
+      <c r="A77" s="32">
         <v>76</v>
       </c>
-      <c r="B77" s="31">
+      <c r="B77" s="32">
         <v>76</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C77" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D77" s="31">
+      <c r="D77" s="32">
         <v>29</v>
       </c>
-      <c r="E77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-    </row>
-    <row r="78" s="39" customFormat="1" spans="1:9">
-      <c r="A78" s="31">
+      <c r="E77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+    </row>
+    <row r="78" s="40" customFormat="1" spans="1:9">
+      <c r="A78" s="32">
         <v>77</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="32">
         <v>77</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="D78" s="31">
+      <c r="D78" s="32">
         <v>30</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-    </row>
-    <row r="79" s="39" customFormat="1" spans="1:9">
+      <c r="E78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+    </row>
+    <row r="79" s="40" customFormat="1" spans="1:9">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" s="8">
         <v>78</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="41" t="s">
         <v>266</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-    </row>
-    <row r="80" s="39" customFormat="1" spans="1:9">
+      <c r="E79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+    </row>
+    <row r="80" s="40" customFormat="1" spans="1:9">
       <c r="A80" s="8">
         <v>79</v>
       </c>
       <c r="B80" s="8">
         <v>79</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="41" t="s">
         <v>266</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
       </c>
-      <c r="E80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-    </row>
-    <row r="81" s="39" customFormat="1" spans="1:9">
+      <c r="E80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+    </row>
+    <row r="81" s="40" customFormat="1" spans="1:9">
       <c r="A81" s="18">
         <v>80</v>
       </c>
       <c r="B81" s="18">
         <v>80</v>
       </c>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="42" t="s">
         <v>219</v>
       </c>
       <c r="D81" s="18">
         <v>0</v>
       </c>
-      <c r="E81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-    </row>
-    <row r="82" s="39" customFormat="1" spans="1:9">
+      <c r="E81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+    </row>
+    <row r="82" s="40" customFormat="1" spans="1:9">
       <c r="A82" s="18">
         <v>81</v>
       </c>
       <c r="B82" s="18">
         <v>80</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="42" t="s">
         <v>267</v>
       </c>
       <c r="D82" s="18">
         <v>0</v>
       </c>
-      <c r="E82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-    </row>
-    <row r="83" s="39" customFormat="1" spans="1:9">
+      <c r="E82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+    </row>
+    <row r="83" s="40" customFormat="1" spans="1:9">
       <c r="A83" s="18">
         <v>82</v>
       </c>
       <c r="B83" s="18">
         <v>80</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="42" t="s">
         <v>268</v>
       </c>
       <c r="D83" s="18">
         <v>0</v>
       </c>
-      <c r="E83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-    </row>
-    <row r="84" s="39" customFormat="1" spans="1:9">
+      <c r="E83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+    </row>
+    <row r="84" s="40" customFormat="1" spans="1:9">
       <c r="A84" s="18">
         <v>83</v>
       </c>
       <c r="B84" s="18">
         <v>80</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="42" t="s">
         <v>269</v>
       </c>
       <c r="D84" s="18">
         <v>0</v>
       </c>
-      <c r="E84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-    </row>
-    <row r="85" s="39" customFormat="1" spans="1:9">
+      <c r="E84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+    </row>
+    <row r="85" s="40" customFormat="1" spans="1:9">
       <c r="A85" s="18">
         <v>84</v>
       </c>
       <c r="B85" s="18">
         <v>80</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="42" t="s">
         <v>270</v>
       </c>
       <c r="D85" s="18">
         <v>0</v>
       </c>
-      <c r="E85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-    </row>
-    <row r="86" s="39" customFormat="1" spans="1:9">
+      <c r="E85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+    </row>
+    <row r="86" s="40" customFormat="1" spans="1:9">
       <c r="A86" s="18">
         <v>85</v>
       </c>
       <c r="B86" s="18">
         <v>80</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="42" t="s">
         <v>221</v>
       </c>
       <c r="D86" s="18">
         <v>0</v>
       </c>
-      <c r="E86" s="31"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="31"/>
-    </row>
-    <row r="87" s="39" customFormat="1" spans="1:9">
+      <c r="E86" s="32"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="32"/>
+    </row>
+    <row r="87" s="40" customFormat="1" spans="1:9">
       <c r="A87" s="18">
         <v>86</v>
       </c>
       <c r="B87" s="18">
         <v>80</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="42" t="s">
         <v>271</v>
       </c>
       <c r="D87" s="18">
         <v>0</v>
       </c>
-      <c r="E87" s="31"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="31"/>
-    </row>
-    <row r="88" s="39" customFormat="1" spans="1:9">
+      <c r="E87" s="32"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="32"/>
+    </row>
+    <row r="88" s="40" customFormat="1" spans="1:9">
       <c r="A88" s="18">
         <v>87</v>
       </c>
       <c r="B88" s="18">
         <v>80</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="42" t="s">
         <v>272</v>
       </c>
       <c r="D88" s="18">
         <v>0</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-    </row>
-    <row r="89" s="39" customFormat="1" spans="1:9">
+      <c r="E88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+    </row>
+    <row r="89" s="40" customFormat="1" spans="1:9">
       <c r="A89" s="18">
         <v>88</v>
       </c>
       <c r="B89" s="18">
         <v>80</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="42" t="s">
         <v>273</v>
       </c>
       <c r="D89" s="18">
         <v>0</v>
       </c>
-      <c r="E89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-    </row>
-    <row r="90" s="39" customFormat="1" spans="1:9">
+      <c r="E89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+    </row>
+    <row r="90" s="40" customFormat="1" spans="1:9">
       <c r="A90" s="18">
         <v>89</v>
       </c>
       <c r="B90" s="18">
         <v>80</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="42" t="s">
         <v>274</v>
       </c>
       <c r="D90" s="18">
         <v>0</v>
       </c>
-      <c r="E90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
+      <c r="E90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="8">
@@ -12166,7 +12169,7 @@
       <c r="B91" s="20">
         <v>81</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="44" t="s">
         <v>239</v>
       </c>
       <c r="D91" s="20">
@@ -12180,10 +12183,10 @@
       <c r="B92" s="21">
         <v>82</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="29">
+      <c r="D92" s="30">
         <v>33</v>
       </c>
     </row>
@@ -12194,7 +12197,7 @@
       <c r="B93" s="21">
         <v>83</v>
       </c>
-      <c r="C93" s="35" t="s">
+      <c r="C93" s="36" t="s">
         <v>266</v>
       </c>
       <c r="D93" s="21">
@@ -12208,10 +12211,10 @@
       <c r="B94" s="21">
         <v>84</v>
       </c>
-      <c r="C94" s="35" t="s">
+      <c r="C94" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="D94" s="29">
+      <c r="D94" s="30">
         <v>35</v>
       </c>
     </row>
@@ -12225,60 +12228,60 @@
       <c r="C95" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D95" s="31">
+      <c r="D95" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="39" customFormat="1" spans="1:9">
+    <row r="96" s="40" customFormat="1" spans="1:9">
       <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="31">
+      <c r="B96" s="32">
         <v>86</v>
       </c>
-      <c r="C96" s="31" t="s">
+      <c r="C96" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D96" s="31">
+      <c r="D96" s="32">
         <v>0</v>
       </c>
-      <c r="E96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-    </row>
-    <row r="97" s="39" customFormat="1" spans="1:9">
+      <c r="E96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+    </row>
+    <row r="97" s="40" customFormat="1" spans="1:9">
       <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="31">
+      <c r="B97" s="32">
         <v>87</v>
       </c>
-      <c r="C97" s="31" t="s">
+      <c r="C97" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D97" s="31">
+      <c r="D97" s="32">
         <v>0</v>
       </c>
-      <c r="E97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-    </row>
-    <row r="98" s="39" customFormat="1" spans="1:9">
+      <c r="E97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+    </row>
+    <row r="98" s="40" customFormat="1" spans="1:9">
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="31">
+      <c r="B98" s="32">
         <v>88</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D98" s="31">
+      <c r="D98" s="32">
         <v>0</v>
       </c>
-      <c r="E98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
+      <c r="E98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="8">
@@ -12287,10 +12290,10 @@
       <c r="B99" s="4">
         <v>89</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C99" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D99" s="31">
+      <c r="D99" s="32">
         <v>0</v>
       </c>
     </row>
@@ -12371,7 +12374,7 @@
       <c r="B105" s="4">
         <v>96</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="42" t="s">
         <v>219</v>
       </c>
       <c r="D105" s="14">
@@ -12388,7 +12391,7 @@
       <c r="B106" s="4">
         <v>96</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="42" t="s">
         <v>267</v>
       </c>
       <c r="D106" s="14">
@@ -12402,7 +12405,7 @@
       <c r="B107" s="4">
         <v>96</v>
       </c>
-      <c r="C107" s="41" t="s">
+      <c r="C107" s="42" t="s">
         <v>268</v>
       </c>
       <c r="D107" s="14">
@@ -12416,7 +12419,7 @@
       <c r="B108" s="4">
         <v>96</v>
       </c>
-      <c r="C108" s="41" t="s">
+      <c r="C108" s="42" t="s">
         <v>269</v>
       </c>
       <c r="D108" s="14">
@@ -12430,7 +12433,7 @@
       <c r="B109" s="4">
         <v>96</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="42" t="s">
         <v>270</v>
       </c>
       <c r="D109" s="14">
@@ -12444,7 +12447,7 @@
       <c r="B110" s="4">
         <v>96</v>
       </c>
-      <c r="C110" s="41" t="s">
+      <c r="C110" s="42" t="s">
         <v>221</v>
       </c>
       <c r="D110" s="14">
@@ -12458,7 +12461,7 @@
       <c r="B111" s="4">
         <v>96</v>
       </c>
-      <c r="C111" s="41" t="s">
+      <c r="C111" s="42" t="s">
         <v>271</v>
       </c>
       <c r="D111" s="14">
@@ -12475,7 +12478,7 @@
       <c r="B112" s="4">
         <v>96</v>
       </c>
-      <c r="C112" s="41" t="s">
+      <c r="C112" s="42" t="s">
         <v>272</v>
       </c>
       <c r="D112" s="14">
@@ -12489,7 +12492,7 @@
       <c r="B113" s="4">
         <v>96</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C113" s="42" t="s">
         <v>273</v>
       </c>
       <c r="D113" s="14">
@@ -12503,7 +12506,7 @@
       <c r="B114" s="4">
         <v>96</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="42" t="s">
         <v>274</v>
       </c>
       <c r="D114" s="14">
@@ -12517,7 +12520,7 @@
       <c r="B115" s="4">
         <v>96</v>
       </c>
-      <c r="C115" s="41" t="s">
+      <c r="C115" s="42" t="s">
         <v>277</v>
       </c>
       <c r="D115" s="14">
@@ -12579,7 +12582,7 @@
       <c r="C119" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D119" s="29">
+      <c r="D119" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12593,10 +12596,10 @@
       <c r="C120" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="D120" s="29">
+      <c r="D120" s="30">
         <v>0</v>
       </c>
-      <c r="F120" s="44" t="s">
+      <c r="F120" s="45" t="s">
         <v>282</v>
       </c>
     </row>
@@ -12610,10 +12613,10 @@
       <c r="C121" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D121" s="29">
+      <c r="D121" s="30">
         <v>0</v>
       </c>
-      <c r="F121" s="44"/>
+      <c r="F121" s="45"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="21">
@@ -12625,10 +12628,10 @@
       <c r="C122" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D122" s="29">
+      <c r="D122" s="30">
         <v>0</v>
       </c>
-      <c r="F122" s="44"/>
+      <c r="F122" s="45"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="21">
@@ -12640,10 +12643,10 @@
       <c r="C123" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="D123" s="29">
+      <c r="D123" s="30">
         <v>0</v>
       </c>
-      <c r="F123" s="44"/>
+      <c r="F123" s="45"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="21">
@@ -12655,10 +12658,10 @@
       <c r="C124" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D124" s="29">
+      <c r="D124" s="30">
         <v>0</v>
       </c>
-      <c r="F124" s="44"/>
+      <c r="F124" s="45"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="21">
@@ -12670,10 +12673,10 @@
       <c r="C125" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="D125" s="29">
+      <c r="D125" s="30">
         <v>0</v>
       </c>
-      <c r="F125" s="44"/>
+      <c r="F125" s="45"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="21">
@@ -12685,10 +12688,10 @@
       <c r="C126" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="D126" s="29">
+      <c r="D126" s="30">
         <v>0</v>
       </c>
-      <c r="F126" s="44"/>
+      <c r="F126" s="45"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="21">
@@ -12700,10 +12703,10 @@
       <c r="C127" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D127" s="29">
+      <c r="D127" s="30">
         <v>0</v>
       </c>
-      <c r="F127" s="44"/>
+      <c r="F127" s="45"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="21">
@@ -12715,10 +12718,10 @@
       <c r="C128" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="D128" s="29">
+      <c r="D128" s="30">
         <v>0</v>
       </c>
-      <c r="F128" s="44"/>
+      <c r="F128" s="45"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="21">
@@ -12730,10 +12733,10 @@
       <c r="C129" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="D129" s="29">
+      <c r="D129" s="30">
         <v>0</v>
       </c>
-      <c r="F129" s="44"/>
+      <c r="F129" s="45"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="21">
@@ -12745,10 +12748,10 @@
       <c r="C130" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="D130" s="29">
+      <c r="D130" s="30">
         <v>0</v>
       </c>
-      <c r="F130" s="44"/>
+      <c r="F130" s="45"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="21">
@@ -12760,10 +12763,10 @@
       <c r="C131" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="D131" s="29">
+      <c r="D131" s="30">
         <v>0</v>
       </c>
-      <c r="F131" s="44"/>
+      <c r="F131" s="45"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="21">
@@ -12775,10 +12778,10 @@
       <c r="C132" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="D132" s="29">
+      <c r="D132" s="30">
         <v>0</v>
       </c>
-      <c r="F132" s="44"/>
+      <c r="F132" s="45"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="21">
@@ -12790,10 +12793,10 @@
       <c r="C133" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="D133" s="29">
+      <c r="D133" s="30">
         <v>0</v>
       </c>
-      <c r="F133" s="44"/>
+      <c r="F133" s="45"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="21">
@@ -12805,8 +12808,8 @@
       <c r="C134" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="D134" s="29"/>
-      <c r="F134" s="44"/>
+      <c r="D134" s="30"/>
+      <c r="F134" s="45"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="21">
@@ -12818,10 +12821,10 @@
       <c r="C135" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="D135" s="29">
+      <c r="D135" s="30">
         <v>0</v>
       </c>
-      <c r="F135" s="44"/>
+      <c r="F135" s="45"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="21">
@@ -12833,7 +12836,7 @@
       <c r="C136" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="D136" s="29">
+      <c r="D136" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12847,7 +12850,7 @@
       <c r="C137" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="D137" s="29">
+      <c r="D137" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12861,7 +12864,7 @@
       <c r="C138" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D138" s="29">
+      <c r="D138" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12875,7 +12878,7 @@
       <c r="C139" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="D139" s="29">
+      <c r="D139" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12889,7 +12892,7 @@
       <c r="C140" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D140" s="29">
+      <c r="D140" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12903,7 +12906,7 @@
       <c r="C141" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="D141" s="29">
+      <c r="D141" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12917,7 +12920,7 @@
       <c r="C142" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D142" s="29">
+      <c r="D142" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12931,7 +12934,7 @@
       <c r="C143" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D143" s="29">
+      <c r="D143" s="30">
         <v>37</v>
       </c>
     </row>
@@ -12945,7 +12948,7 @@
       <c r="C144" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="D144" s="29">
+      <c r="D144" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12959,7 +12962,7 @@
       <c r="C145" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="D145" s="29">
+      <c r="D145" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12973,7 +12976,7 @@
       <c r="C146" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D146" s="29">
+      <c r="D146" s="30">
         <v>0</v>
       </c>
     </row>
@@ -12987,12 +12990,12 @@
       <c r="C147" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="D147" s="29">
+      <c r="D147" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="45"/>
+      <c r="C148" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14024,13 +14027,13 @@
       <c r="B59" s="26">
         <v>28</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="D59" s="31">
-        <v>1</v>
-      </c>
-      <c r="E59" s="31">
+      <c r="D59" s="32">
+        <v>1</v>
+      </c>
+      <c r="E59" s="32">
         <v>2</v>
       </c>
     </row>
@@ -14041,7 +14044,7 @@
       <c r="B60" s="4">
         <v>29</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="32" t="s">
         <v>330</v>
       </c>
       <c r="D60" s="4">
@@ -14058,7 +14061,7 @@
       <c r="B61" s="26">
         <v>30</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="32" t="s">
         <v>330</v>
       </c>
       <c r="D61" s="4">
@@ -14068,71 +14071,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" s="30" customFormat="1" spans="1:6">
-      <c r="A62" s="32">
+    <row r="62" s="31" customFormat="1" spans="1:6">
+      <c r="A62" s="33">
         <v>61</v>
       </c>
-      <c r="B62" s="33">
+      <c r="B62" s="34">
         <v>31</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C62" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="34">
         <v>2</v>
       </c>
-      <c r="F62" s="33"/>
-    </row>
-    <row r="63" s="30" customFormat="1" spans="1:6">
-      <c r="A63" s="32">
+      <c r="F62" s="34"/>
+    </row>
+    <row r="63" s="31" customFormat="1" spans="1:6">
+      <c r="A63" s="33">
         <v>62</v>
       </c>
-      <c r="B63" s="33">
+      <c r="B63" s="34">
         <v>32</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="34">
         <v>2</v>
       </c>
-      <c r="F63" s="33"/>
-    </row>
-    <row r="64" s="30" customFormat="1" spans="1:6">
-      <c r="A64" s="32">
+      <c r="F63" s="34"/>
+    </row>
+    <row r="64" s="31" customFormat="1" spans="1:6">
+      <c r="A64" s="33">
         <v>63</v>
       </c>
-      <c r="B64" s="33">
+      <c r="B64" s="34">
         <v>32</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D64" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E64" s="34">
         <v>2</v>
       </c>
-      <c r="F64" s="33"/>
+      <c r="F64" s="34"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="29">
+      <c r="A65" s="30">
         <v>64</v>
       </c>
-      <c r="B65" s="29">
+      <c r="B65" s="30">
         <v>33</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="D65" s="29">
+      <c r="D65" s="30">
         <v>2</v>
       </c>
       <c r="E65" s="21">
@@ -14140,7 +14143,7 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="29">
+      <c r="A66" s="30">
         <v>65</v>
       </c>
       <c r="B66" s="21">
@@ -14149,7 +14152,7 @@
       <c r="C66" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="30">
         <v>3</v>
       </c>
       <c r="E66" s="21">
@@ -14157,16 +14160,16 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="29">
+      <c r="A67" s="30">
         <v>66</v>
       </c>
-      <c r="B67" s="29">
+      <c r="B67" s="30">
         <v>35</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D67" s="30">
         <v>4</v>
       </c>
       <c r="E67" s="21">
@@ -14183,7 +14186,7 @@
       <c r="C68" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D68" s="36" t="s">
+      <c r="D68" s="37" t="s">
         <v>331</v>
       </c>
       <c r="E68" s="4">
@@ -14197,10 +14200,10 @@
       <c r="B69" s="4">
         <v>37</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="38" t="s">
         <v>332</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="39" t="s">
         <v>333</v>
       </c>
       <c r="E69" s="4">
@@ -14218,10 +14221,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C175" sqref="C175"/>
+      <selection pane="bottomLeft" activeCell="G193" sqref="G193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -17493,7 +17496,7 @@
       <c r="B182" s="20">
         <v>164</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C182" s="29" t="s">
         <v>391</v>
       </c>
       <c r="D182" s="20">
@@ -17884,7 +17887,7 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="29">
+      <c r="A205" s="30">
         <v>204</v>
       </c>
       <c r="B205" s="21">
@@ -17901,7 +17904,7 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="29">
+      <c r="A206" s="30">
         <v>205</v>
       </c>
       <c r="B206" s="21">
@@ -17918,7 +17921,7 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="29">
+      <c r="A207" s="30">
         <v>206</v>
       </c>
       <c r="B207" s="21">
